--- a/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
@@ -453,28 +453,28 @@
         <v>2.099836255888704</v>
       </c>
       <c r="C3">
-        <v>0.8978037540444177</v>
+        <v>0.8978037540444461</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.491611010464176</v>
+        <v>0.4916110104642186</v>
       </c>
       <c r="F3">
-        <v>2.302412395188455</v>
+        <v>2.302412395188412</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.112432378273382</v>
+        <v>1.112432378273397</v>
       </c>
       <c r="I3">
-        <v>0.2637650290791385</v>
+        <v>0.2637650290791171</v>
       </c>
       <c r="J3">
-        <v>0.6925116290038176</v>
+        <v>0.6925116290038034</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.894270498645653</v>
+        <v>1.894270498645767</v>
       </c>
       <c r="C4">
-        <v>0.8080753529469007</v>
+        <v>0.8080753529468723</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.44467316099432</v>
+        <v>0.4446731609942844</v>
       </c>
       <c r="F4">
-        <v>2.082888587321563</v>
+        <v>2.082888587321548</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.041964901651681</v>
+        <v>1.041964901651667</v>
       </c>
       <c r="I4">
-        <v>0.2437201263786122</v>
+        <v>0.2437201263786406</v>
       </c>
       <c r="J4">
         <v>0.6242760325752599</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.811232946212016</v>
+        <v>1.811232946211902</v>
       </c>
       <c r="C5">
-        <v>0.7719260008128401</v>
+        <v>0.771926000812897</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4257044802869743</v>
+        <v>0.4257044802869885</v>
       </c>
       <c r="F5">
-        <v>1.994691858163065</v>
+        <v>1.994691858163051</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>1.01402439553938</v>
       </c>
       <c r="I5">
-        <v>0.2357693389674793</v>
+        <v>0.2357693389674935</v>
       </c>
       <c r="J5">
-        <v>0.5967354362321373</v>
+        <v>0.5967354362321089</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.797484910954864</v>
+        <v>1.797484910954807</v>
       </c>
       <c r="C6">
-        <v>0.7659463620619817</v>
+        <v>0.7659463620621523</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4225633619935536</v>
+        <v>0.4225633619935607</v>
       </c>
       <c r="F6">
-        <v>1.980117452621897</v>
+        <v>1.98011745262194</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.009428916066412</v>
+        <v>1.009428916066433</v>
       </c>
       <c r="I6">
-        <v>0.2344613825780435</v>
+        <v>0.2344613825780577</v>
       </c>
       <c r="J6">
-        <v>0.5921769909780537</v>
+        <v>0.592176990978075</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,13 +605,13 @@
         <v>1.893147840423353</v>
       </c>
       <c r="C7">
-        <v>0.8075862463155659</v>
+        <v>0.8075862463155374</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4444167442055402</v>
+        <v>0.4444167442054692</v>
       </c>
       <c r="F7">
         <v>2.081694283865872</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.041585074829868</v>
+        <v>1.041585074829896</v>
       </c>
       <c r="I7">
-        <v>0.2436120581995027</v>
+        <v>0.2436120581994885</v>
       </c>
       <c r="J7">
-        <v>0.6239035981860681</v>
+        <v>0.623903598186061</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>2.322098165320426</v>
       </c>
       <c r="C8">
-        <v>0.9951951878163925</v>
+        <v>0.9951951878164209</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0.5423412384264878</v>
       </c>
       <c r="F8">
-        <v>2.5415415718426</v>
+        <v>2.541541571842629</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>1.19056576015619</v>
       </c>
       <c r="I8">
-        <v>0.2859889473910755</v>
+        <v>0.285988947391111</v>
       </c>
       <c r="J8">
-        <v>0.7663787648252836</v>
+        <v>0.7663787648252907</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.198370807507217</v>
+        <v>3.198370807507331</v>
       </c>
       <c r="C9">
-        <v>1.382852244391586</v>
+        <v>1.382852244391358</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7423877053176824</v>
+        <v>0.7423877053176966</v>
       </c>
       <c r="F9">
-        <v>3.499938453047179</v>
+        <v>3.49993845304715</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>1.515716946139108</v>
       </c>
       <c r="I9">
-        <v>0.3786597496000184</v>
+        <v>0.3786597496000539</v>
       </c>
       <c r="J9">
         <v>1.058478202140989</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.87568956312407</v>
+        <v>3.875689563123956</v>
       </c>
       <c r="C10">
-        <v>1.686434691746626</v>
+        <v>1.68643469174657</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -728,16 +728,16 @@
         <v>0.8973108179662148</v>
       </c>
       <c r="F10">
-        <v>4.255457356966843</v>
+        <v>4.255457356966872</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.78324963934574</v>
+        <v>1.783249639345726</v>
       </c>
       <c r="I10">
-        <v>0.455334261325568</v>
+        <v>0.4553342613255893</v>
       </c>
       <c r="J10">
         <v>1.285191045005519</v>
@@ -757,7 +757,7 @@
         <v>4.194408406819321</v>
       </c>
       <c r="C11">
-        <v>1.830465161243239</v>
+        <v>1.83046516124341</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -766,19 +766,19 @@
         <v>0.9703604063365106</v>
       </c>
       <c r="F11">
-        <v>4.614893082753923</v>
+        <v>4.614893082753952</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1.913494721913793</v>
+        <v>1.91349472191375</v>
       </c>
       <c r="I11">
-        <v>0.4928451223878554</v>
+        <v>0.4928451223878696</v>
       </c>
       <c r="J11">
-        <v>1.392150731016685</v>
+        <v>1.39215073101667</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>4.31695988640837</v>
       </c>
       <c r="C12">
-        <v>1.886047182820278</v>
+        <v>1.886047182820334</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.9984792663438355</v>
+        <v>0.9984792663438071</v>
       </c>
       <c r="F12">
         <v>4.753729146583993</v>
@@ -810,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1.964279061101323</v>
+        <v>1.964279061101308</v>
       </c>
       <c r="I12">
-        <v>0.507506928139307</v>
+        <v>0.5075069281393283</v>
       </c>
       <c r="J12">
-        <v>1.433325333980505</v>
+        <v>1.43332533398052</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.29047753422924</v>
+        <v>4.290477534229296</v>
       </c>
       <c r="C13">
-        <v>1.874026931780122</v>
+        <v>1.874026931779611</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.9924015065842156</v>
+        <v>0.9924015065842866</v>
       </c>
       <c r="F13">
-        <v>4.723698859486575</v>
+        <v>4.723698859486518</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1.953272462018987</v>
+        <v>1.953272462018973</v>
       </c>
       <c r="I13">
-        <v>0.5043274856653994</v>
+        <v>0.5043274856654278</v>
       </c>
       <c r="J13">
         <v>1.424425622971853</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.204451385727111</v>
+        <v>4.204451385726998</v>
       </c>
       <c r="C14">
-        <v>1.835015864375634</v>
+        <v>1.83501586437518</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9726640577886201</v>
+        <v>0.9726640577886485</v>
       </c>
       <c r="F14">
-        <v>4.626257648346382</v>
+        <v>4.626257648346353</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1.917641955010382</v>
+        <v>1.917641955010353</v>
       </c>
       <c r="I14">
-        <v>0.494041686704854</v>
+        <v>0.4940416867048327</v>
       </c>
       <c r="J14">
-        <v>1.395523964037821</v>
+        <v>1.395523964037793</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.152011031795041</v>
+        <v>4.152011031794927</v>
       </c>
       <c r="C15">
-        <v>1.811262185980354</v>
+        <v>1.811262185980183</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9606366026522579</v>
+        <v>0.960636602652329</v>
       </c>
       <c r="F15">
         <v>4.566942128922022</v>
@@ -927,7 +927,7 @@
         <v>1.896015504171686</v>
       </c>
       <c r="I15">
-        <v>0.4878034897295507</v>
+        <v>0.4878034897295578</v>
       </c>
       <c r="J15">
         <v>1.377912254163249</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.855101183543013</v>
+        <v>3.855101183543127</v>
       </c>
       <c r="C16">
-        <v>1.677156588958837</v>
+        <v>1.677156588959122</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -956,19 +956,19 @@
         <v>0.8925956801254245</v>
       </c>
       <c r="F16">
-        <v>4.232321864998852</v>
+        <v>4.23232186499888</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.774928871342766</v>
+        <v>1.774928871342752</v>
       </c>
       <c r="I16">
-        <v>0.4529421908991793</v>
+        <v>0.4529421908992077</v>
       </c>
       <c r="J16">
-        <v>1.278287838921145</v>
+        <v>1.278287838921131</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.675892485180668</v>
+        <v>3.675892485180952</v>
       </c>
       <c r="C17">
-        <v>1.59652926105133</v>
+        <v>1.596529261051046</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.8515707058559059</v>
+        <v>0.8515707058558775</v>
       </c>
       <c r="F17">
-        <v>4.031379965156759</v>
+        <v>4.031379965156731</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>1.70298877322584</v>
       </c>
       <c r="I17">
-        <v>0.4322814061834706</v>
+        <v>0.4322814061834777</v>
       </c>
       <c r="J17">
         <v>1.218231136972506</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.573791210946126</v>
+        <v>3.573791210946069</v>
       </c>
       <c r="C18">
-        <v>1.550699576994077</v>
+        <v>1.550699576994532</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8282105148967958</v>
+        <v>0.8282105148967389</v>
       </c>
       <c r="F18">
         <v>3.917253769525928</v>
@@ -1041,10 +1041,10 @@
         <v>1.662398609176904</v>
       </c>
       <c r="I18">
-        <v>0.4206400249721014</v>
+        <v>0.4206400249721156</v>
       </c>
       <c r="J18">
-        <v>1.184039927085877</v>
+        <v>1.184039927085848</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.539379640700929</v>
+        <v>3.539379640700986</v>
       </c>
       <c r="C19">
-        <v>1.535270849934363</v>
+        <v>1.535270849934648</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8203393600764883</v>
+        <v>0.8203393600764599</v>
       </c>
       <c r="F19">
-        <v>3.878848902894958</v>
+        <v>3.878848902894987</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.648784294343415</v>
+        <v>1.648784294343429</v>
       </c>
       <c r="I19">
-        <v>0.4167378775808075</v>
+        <v>0.4167378775808004</v>
       </c>
       <c r="J19">
-        <v>1.172520452311105</v>
+        <v>1.172520452311119</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.694866427982845</v>
+        <v>3.694866427982788</v>
       </c>
       <c r="C20">
-        <v>1.605054514921449</v>
+        <v>1.605054514921221</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.8559128541953953</v>
+        <v>0.8559128541953527</v>
       </c>
       <c r="F20">
         <v>4.052617387967359</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.71056380631228</v>
+        <v>1.710563806312251</v>
       </c>
       <c r="I20">
-        <v>0.4344551957203038</v>
+        <v>0.4344551957203109</v>
       </c>
       <c r="J20">
-        <v>1.224587055671535</v>
+        <v>1.224587055671549</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.229665909309915</v>
+        <v>4.229665909309858</v>
       </c>
       <c r="C21">
         <v>1.846444437852199</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.9784482631282003</v>
+        <v>0.9784482631281577</v>
       </c>
       <c r="F21">
         <v>4.654800436302168</v>
@@ -1155,10 +1155,10 @@
         <v>1.928065699915052</v>
       </c>
       <c r="I21">
-        <v>0.4970497595633105</v>
+        <v>0.4970497595632963</v>
       </c>
       <c r="J21">
-        <v>1.403993787897122</v>
+        <v>1.403993787897178</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.590229755904431</v>
+        <v>4.590229755904545</v>
       </c>
       <c r="C22">
-        <v>2.010387848737821</v>
+        <v>2.010387848738048</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.061246285871462</v>
+        <v>1.061246285871519</v>
       </c>
       <c r="F22">
         <v>5.064526030920206</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.078887068094744</v>
+        <v>2.07888706809473</v>
       </c>
       <c r="I22">
-        <v>0.540672742894742</v>
+        <v>0.5406727428947988</v>
       </c>
       <c r="J22">
         <v>1.525232573218261</v>
@@ -1213,7 +1213,7 @@
         <v>4.396652380095645</v>
       </c>
       <c r="C23">
-        <v>1.922250756000608</v>
+        <v>1.922250756000665</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>1.997508194145496</v>
       </c>
       <c r="I23">
-        <v>0.5171117092960955</v>
+        <v>0.5171117092961026</v>
       </c>
       <c r="J23">
         <v>1.460114344743474</v>
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.686285441758514</v>
+        <v>3.6862854417584</v>
       </c>
       <c r="C24">
-        <v>1.601198629082376</v>
+        <v>1.601198629082319</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.707136755267385</v>
+        <v>1.707136755267371</v>
       </c>
       <c r="I24">
-        <v>0.433471693691061</v>
+        <v>0.4334716936911107</v>
       </c>
       <c r="J24">
-        <v>1.221712506499259</v>
+        <v>1.221712506499316</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,25 +1289,25 @@
         <v>2.956414987502853</v>
       </c>
       <c r="C25">
-        <v>1.27523282681193</v>
+        <v>1.275232826812214</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6871241355000635</v>
+        <v>0.687124135500099</v>
       </c>
       <c r="F25">
-        <v>3.233009388039079</v>
+        <v>3.233009388039108</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.42341644889278</v>
+        <v>1.423416448892795</v>
       </c>
       <c r="I25">
-        <v>0.3523071972090648</v>
+        <v>0.3523071972090719</v>
       </c>
       <c r="J25">
         <v>0.9776863682141652</v>

--- a/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
@@ -453,28 +453,28 @@
         <v>2.099836255888704</v>
       </c>
       <c r="C3">
-        <v>0.8978037540444461</v>
+        <v>0.8978037540444177</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4916110104642186</v>
+        <v>0.491611010464176</v>
       </c>
       <c r="F3">
-        <v>2.302412395188412</v>
+        <v>2.302412395188455</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.112432378273397</v>
+        <v>1.112432378273382</v>
       </c>
       <c r="I3">
-        <v>0.2637650290791171</v>
+        <v>0.2637650290791385</v>
       </c>
       <c r="J3">
-        <v>0.6925116290038034</v>
+        <v>0.6925116290038176</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.894270498645767</v>
+        <v>1.894270498645653</v>
       </c>
       <c r="C4">
-        <v>0.8080753529468723</v>
+        <v>0.8080753529469007</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4446731609942844</v>
+        <v>0.44467316099432</v>
       </c>
       <c r="F4">
-        <v>2.082888587321548</v>
+        <v>2.082888587321563</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.041964901651667</v>
+        <v>1.041964901651681</v>
       </c>
       <c r="I4">
-        <v>0.2437201263786406</v>
+        <v>0.2437201263786122</v>
       </c>
       <c r="J4">
         <v>0.6242760325752599</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.811232946211902</v>
+        <v>1.811232946212016</v>
       </c>
       <c r="C5">
-        <v>0.771926000812897</v>
+        <v>0.7719260008128401</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4257044802869885</v>
+        <v>0.4257044802869743</v>
       </c>
       <c r="F5">
-        <v>1.994691858163051</v>
+        <v>1.994691858163065</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>1.01402439553938</v>
       </c>
       <c r="I5">
-        <v>0.2357693389674935</v>
+        <v>0.2357693389674793</v>
       </c>
       <c r="J5">
-        <v>0.5967354362321089</v>
+        <v>0.5967354362321373</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.797484910954807</v>
+        <v>1.797484910954864</v>
       </c>
       <c r="C6">
-        <v>0.7659463620621523</v>
+        <v>0.7659463620619817</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4225633619935607</v>
+        <v>0.4225633619935536</v>
       </c>
       <c r="F6">
-        <v>1.98011745262194</v>
+        <v>1.980117452621897</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.009428916066433</v>
+        <v>1.009428916066412</v>
       </c>
       <c r="I6">
-        <v>0.2344613825780577</v>
+        <v>0.2344613825780435</v>
       </c>
       <c r="J6">
-        <v>0.592176990978075</v>
+        <v>0.5921769909780537</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,13 +605,13 @@
         <v>1.893147840423353</v>
       </c>
       <c r="C7">
-        <v>0.8075862463155374</v>
+        <v>0.8075862463155659</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4444167442054692</v>
+        <v>0.4444167442055402</v>
       </c>
       <c r="F7">
         <v>2.081694283865872</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.041585074829896</v>
+        <v>1.041585074829868</v>
       </c>
       <c r="I7">
-        <v>0.2436120581994885</v>
+        <v>0.2436120581995027</v>
       </c>
       <c r="J7">
-        <v>0.623903598186061</v>
+        <v>0.6239035981860681</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>2.322098165320426</v>
       </c>
       <c r="C8">
-        <v>0.9951951878164209</v>
+        <v>0.9951951878163925</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0.5423412384264878</v>
       </c>
       <c r="F8">
-        <v>2.541541571842629</v>
+        <v>2.5415415718426</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>1.19056576015619</v>
       </c>
       <c r="I8">
-        <v>0.285988947391111</v>
+        <v>0.2859889473910755</v>
       </c>
       <c r="J8">
-        <v>0.7663787648252907</v>
+        <v>0.7663787648252836</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.198370807507331</v>
+        <v>3.198370807507217</v>
       </c>
       <c r="C9">
-        <v>1.382852244391358</v>
+        <v>1.382852244391586</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7423877053176966</v>
+        <v>0.7423877053176824</v>
       </c>
       <c r="F9">
-        <v>3.49993845304715</v>
+        <v>3.499938453047179</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>1.515716946139108</v>
       </c>
       <c r="I9">
-        <v>0.3786597496000539</v>
+        <v>0.3786597496000184</v>
       </c>
       <c r="J9">
         <v>1.058478202140989</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.875689563123956</v>
+        <v>3.87568956312407</v>
       </c>
       <c r="C10">
-        <v>1.68643469174657</v>
+        <v>1.686434691746626</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -728,16 +728,16 @@
         <v>0.8973108179662148</v>
       </c>
       <c r="F10">
-        <v>4.255457356966872</v>
+        <v>4.255457356966843</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.783249639345726</v>
+        <v>1.78324963934574</v>
       </c>
       <c r="I10">
-        <v>0.4553342613255893</v>
+        <v>0.455334261325568</v>
       </c>
       <c r="J10">
         <v>1.285191045005519</v>
@@ -757,7 +757,7 @@
         <v>4.194408406819321</v>
       </c>
       <c r="C11">
-        <v>1.83046516124341</v>
+        <v>1.830465161243239</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -766,19 +766,19 @@
         <v>0.9703604063365106</v>
       </c>
       <c r="F11">
-        <v>4.614893082753952</v>
+        <v>4.614893082753923</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1.91349472191375</v>
+        <v>1.913494721913793</v>
       </c>
       <c r="I11">
-        <v>0.4928451223878696</v>
+        <v>0.4928451223878554</v>
       </c>
       <c r="J11">
-        <v>1.39215073101667</v>
+        <v>1.392150731016685</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>4.31695988640837</v>
       </c>
       <c r="C12">
-        <v>1.886047182820334</v>
+        <v>1.886047182820278</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.9984792663438071</v>
+        <v>0.9984792663438355</v>
       </c>
       <c r="F12">
         <v>4.753729146583993</v>
@@ -810,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1.964279061101308</v>
+        <v>1.964279061101323</v>
       </c>
       <c r="I12">
-        <v>0.5075069281393283</v>
+        <v>0.507506928139307</v>
       </c>
       <c r="J12">
-        <v>1.43332533398052</v>
+        <v>1.433325333980505</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.290477534229296</v>
+        <v>4.29047753422924</v>
       </c>
       <c r="C13">
-        <v>1.874026931779611</v>
+        <v>1.874026931780122</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.9924015065842866</v>
+        <v>0.9924015065842156</v>
       </c>
       <c r="F13">
-        <v>4.723698859486518</v>
+        <v>4.723698859486575</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1.953272462018973</v>
+        <v>1.953272462018987</v>
       </c>
       <c r="I13">
-        <v>0.5043274856654278</v>
+        <v>0.5043274856653994</v>
       </c>
       <c r="J13">
         <v>1.424425622971853</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.204451385726998</v>
+        <v>4.204451385727111</v>
       </c>
       <c r="C14">
-        <v>1.83501586437518</v>
+        <v>1.835015864375634</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9726640577886485</v>
+        <v>0.9726640577886201</v>
       </c>
       <c r="F14">
-        <v>4.626257648346353</v>
+        <v>4.626257648346382</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1.917641955010353</v>
+        <v>1.917641955010382</v>
       </c>
       <c r="I14">
-        <v>0.4940416867048327</v>
+        <v>0.494041686704854</v>
       </c>
       <c r="J14">
-        <v>1.395523964037793</v>
+        <v>1.395523964037821</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.152011031794927</v>
+        <v>4.152011031795041</v>
       </c>
       <c r="C15">
-        <v>1.811262185980183</v>
+        <v>1.811262185980354</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.960636602652329</v>
+        <v>0.9606366026522579</v>
       </c>
       <c r="F15">
         <v>4.566942128922022</v>
@@ -927,7 +927,7 @@
         <v>1.896015504171686</v>
       </c>
       <c r="I15">
-        <v>0.4878034897295578</v>
+        <v>0.4878034897295507</v>
       </c>
       <c r="J15">
         <v>1.377912254163249</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.855101183543127</v>
+        <v>3.855101183543013</v>
       </c>
       <c r="C16">
-        <v>1.677156588959122</v>
+        <v>1.677156588958837</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -956,19 +956,19 @@
         <v>0.8925956801254245</v>
       </c>
       <c r="F16">
-        <v>4.23232186499888</v>
+        <v>4.232321864998852</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.774928871342752</v>
+        <v>1.774928871342766</v>
       </c>
       <c r="I16">
-        <v>0.4529421908992077</v>
+        <v>0.4529421908991793</v>
       </c>
       <c r="J16">
-        <v>1.278287838921131</v>
+        <v>1.278287838921145</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.675892485180952</v>
+        <v>3.675892485180668</v>
       </c>
       <c r="C17">
-        <v>1.596529261051046</v>
+        <v>1.59652926105133</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.8515707058558775</v>
+        <v>0.8515707058559059</v>
       </c>
       <c r="F17">
-        <v>4.031379965156731</v>
+        <v>4.031379965156759</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>1.70298877322584</v>
       </c>
       <c r="I17">
-        <v>0.4322814061834777</v>
+        <v>0.4322814061834706</v>
       </c>
       <c r="J17">
         <v>1.218231136972506</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.573791210946069</v>
+        <v>3.573791210946126</v>
       </c>
       <c r="C18">
-        <v>1.550699576994532</v>
+        <v>1.550699576994077</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8282105148967389</v>
+        <v>0.8282105148967958</v>
       </c>
       <c r="F18">
         <v>3.917253769525928</v>
@@ -1041,10 +1041,10 @@
         <v>1.662398609176904</v>
       </c>
       <c r="I18">
-        <v>0.4206400249721156</v>
+        <v>0.4206400249721014</v>
       </c>
       <c r="J18">
-        <v>1.184039927085848</v>
+        <v>1.184039927085877</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.539379640700986</v>
+        <v>3.539379640700929</v>
       </c>
       <c r="C19">
-        <v>1.535270849934648</v>
+        <v>1.535270849934363</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8203393600764599</v>
+        <v>0.8203393600764883</v>
       </c>
       <c r="F19">
-        <v>3.878848902894987</v>
+        <v>3.878848902894958</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.648784294343429</v>
+        <v>1.648784294343415</v>
       </c>
       <c r="I19">
-        <v>0.4167378775808004</v>
+        <v>0.4167378775808075</v>
       </c>
       <c r="J19">
-        <v>1.172520452311119</v>
+        <v>1.172520452311105</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.694866427982788</v>
+        <v>3.694866427982845</v>
       </c>
       <c r="C20">
-        <v>1.605054514921221</v>
+        <v>1.605054514921449</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.8559128541953527</v>
+        <v>0.8559128541953953</v>
       </c>
       <c r="F20">
         <v>4.052617387967359</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.710563806312251</v>
+        <v>1.71056380631228</v>
       </c>
       <c r="I20">
-        <v>0.4344551957203109</v>
+        <v>0.4344551957203038</v>
       </c>
       <c r="J20">
-        <v>1.224587055671549</v>
+        <v>1.224587055671535</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.229665909309858</v>
+        <v>4.229665909309915</v>
       </c>
       <c r="C21">
         <v>1.846444437852199</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.9784482631281577</v>
+        <v>0.9784482631282003</v>
       </c>
       <c r="F21">
         <v>4.654800436302168</v>
@@ -1155,10 +1155,10 @@
         <v>1.928065699915052</v>
       </c>
       <c r="I21">
-        <v>0.4970497595632963</v>
+        <v>0.4970497595633105</v>
       </c>
       <c r="J21">
-        <v>1.403993787897178</v>
+        <v>1.403993787897122</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.590229755904545</v>
+        <v>4.590229755904431</v>
       </c>
       <c r="C22">
-        <v>2.010387848738048</v>
+        <v>2.010387848737821</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.061246285871519</v>
+        <v>1.061246285871462</v>
       </c>
       <c r="F22">
         <v>5.064526030920206</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.07888706809473</v>
+        <v>2.078887068094744</v>
       </c>
       <c r="I22">
-        <v>0.5406727428947988</v>
+        <v>0.540672742894742</v>
       </c>
       <c r="J22">
         <v>1.525232573218261</v>
@@ -1213,7 +1213,7 @@
         <v>4.396652380095645</v>
       </c>
       <c r="C23">
-        <v>1.922250756000665</v>
+        <v>1.922250756000608</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>1.997508194145496</v>
       </c>
       <c r="I23">
-        <v>0.5171117092961026</v>
+        <v>0.5171117092960955</v>
       </c>
       <c r="J23">
         <v>1.460114344743474</v>
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.6862854417584</v>
+        <v>3.686285441758514</v>
       </c>
       <c r="C24">
-        <v>1.601198629082319</v>
+        <v>1.601198629082376</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.707136755267371</v>
+        <v>1.707136755267385</v>
       </c>
       <c r="I24">
-        <v>0.4334716936911107</v>
+        <v>0.433471693691061</v>
       </c>
       <c r="J24">
-        <v>1.221712506499316</v>
+        <v>1.221712506499259</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,25 +1289,25 @@
         <v>2.956414987502853</v>
       </c>
       <c r="C25">
-        <v>1.275232826812214</v>
+        <v>1.27523282681193</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.687124135500099</v>
+        <v>0.6871241355000635</v>
       </c>
       <c r="F25">
-        <v>3.233009388039108</v>
+        <v>3.233009388039079</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.423416448892795</v>
+        <v>1.42341644889278</v>
       </c>
       <c r="I25">
-        <v>0.3523071972090719</v>
+        <v>0.3523071972090648</v>
       </c>
       <c r="J25">
         <v>0.9776863682141652</v>

--- a/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.440308009752528</v>
+        <v>2.416745945618061</v>
       </c>
       <c r="C2">
-        <v>1.047149254675958</v>
+        <v>1.033601438158485</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5693186125377636</v>
+        <v>0.5726477533042527</v>
       </c>
       <c r="F2">
-        <v>2.669425559284292</v>
+        <v>2.662420110195399</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007758370024208983</v>
       </c>
       <c r="H2">
-        <v>1.232890223105827</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2980308594315275</v>
+        <v>1.247505983312564</v>
       </c>
       <c r="J2">
-        <v>0.8057021939590356</v>
+        <v>0.2996730966282897</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.797137900467078</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.099836255888704</v>
+        <v>2.079671190214412</v>
       </c>
       <c r="C3">
-        <v>0.8978037540444177</v>
+        <v>0.8862461049223782</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.491611010464176</v>
+        <v>0.4948298481471411</v>
       </c>
       <c r="F3">
-        <v>2.302412395188455</v>
+        <v>2.297563830040289</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007854246153811017</v>
       </c>
       <c r="H3">
-        <v>1.112432378273382</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2637650290791385</v>
+        <v>1.129183767869137</v>
       </c>
       <c r="J3">
-        <v>0.6925116290038176</v>
+        <v>0.2661235773291679</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6851906847352183</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.894270498645653</v>
+        <v>1.876182832863094</v>
       </c>
       <c r="C4">
-        <v>0.8080753529469007</v>
+        <v>0.7977327296723331</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.44467316099432</v>
+        <v>0.4478146331748079</v>
       </c>
       <c r="F4">
-        <v>2.082888587321563</v>
+        <v>2.079331249421571</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007914294650807627</v>
       </c>
       <c r="H4">
-        <v>1.041964901651681</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2437201263786122</v>
+        <v>1.060013274444799</v>
       </c>
       <c r="J4">
-        <v>0.6242760325752599</v>
+        <v>0.2465107063008887</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6177150914867653</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.811232946212016</v>
+        <v>1.793991919649244</v>
       </c>
       <c r="C5">
-        <v>0.7719260008128401</v>
+        <v>0.7620781275736874</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4257044802869743</v>
+        <v>0.428812191969854</v>
       </c>
       <c r="F5">
-        <v>1.994691858163065</v>
+        <v>1.991654594169916</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007939088211678159</v>
       </c>
       <c r="H5">
-        <v>1.01402439553938</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2357693389674793</v>
+        <v>1.032599364673374</v>
       </c>
       <c r="J5">
-        <v>0.5967354362321373</v>
+        <v>0.2387346541469597</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5904841625085524</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.797484910954864</v>
+        <v>1.78038453144805</v>
       </c>
       <c r="C6">
-        <v>0.7659463620619817</v>
+        <v>0.7561806549626056</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4225633619935536</v>
+        <v>0.4256653377076915</v>
       </c>
       <c r="F6">
-        <v>1.980117452621897</v>
+        <v>1.977166236187941</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007943225417495542</v>
       </c>
       <c r="H6">
-        <v>1.009428916066412</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2344613825780435</v>
+        <v>1.028091253748045</v>
       </c>
       <c r="J6">
-        <v>0.5921769909780537</v>
+        <v>0.2374556496019444</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5859771567229828</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.893147840423353</v>
+        <v>1.875071589708114</v>
       </c>
       <c r="C7">
-        <v>0.8075862463155659</v>
+        <v>0.7972502952947309</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4444167442055402</v>
+        <v>0.4475577699002002</v>
       </c>
       <c r="F7">
-        <v>2.081694283865872</v>
+        <v>2.078143981912604</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007914627683954873</v>
       </c>
       <c r="H7">
-        <v>1.041585074829868</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2436120581995027</v>
+        <v>1.059640555281192</v>
       </c>
       <c r="J7">
-        <v>0.6239035981860681</v>
+        <v>0.2464049992333202</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6173468325400506</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.322098165320426</v>
+        <v>2.299710540148396</v>
       </c>
       <c r="C8">
-        <v>0.9951951878163925</v>
+        <v>0.9823359049750877</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5423412384264878</v>
+        <v>0.5456344751271516</v>
       </c>
       <c r="F8">
-        <v>2.5415415718426</v>
+        <v>2.535288125802595</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007791200012043979</v>
       </c>
       <c r="H8">
-        <v>1.19056576015619</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2859889473910755</v>
+        <v>1.205921926624143</v>
       </c>
       <c r="J8">
-        <v>0.7663787648252836</v>
+        <v>0.2878801970659239</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.758244418233204</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.198370807507217</v>
+        <v>3.167344050090946</v>
       </c>
       <c r="C9">
-        <v>1.382852244391586</v>
+        <v>1.364916094773946</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7423877053176824</v>
+        <v>0.7458916873243595</v>
       </c>
       <c r="F9">
-        <v>3.499938453047179</v>
+        <v>3.488001008760705</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007557163202883857</v>
       </c>
       <c r="H9">
-        <v>1.515716946139108</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3786597496000184</v>
+        <v>1.525577227151786</v>
       </c>
       <c r="J9">
-        <v>1.058478202140989</v>
+        <v>0.3786866132044366</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.047178873017458</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.87568956312407</v>
+        <v>3.83799935638234</v>
       </c>
       <c r="C10">
-        <v>1.686434691746626</v>
+        <v>1.664563513962378</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.8973108179662148</v>
+        <v>0.9008947077150822</v>
       </c>
       <c r="F10">
-        <v>4.255457356966843</v>
+        <v>4.23890043831463</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007387900541283146</v>
       </c>
       <c r="H10">
-        <v>1.78324963934574</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.455334261325568</v>
+        <v>1.78879611871848</v>
       </c>
       <c r="J10">
-        <v>1.285191045005519</v>
+        <v>0.4538733059343656</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.271446649346913</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.194408406819321</v>
+        <v>4.153557658288037</v>
       </c>
       <c r="C11">
-        <v>1.830465161243239</v>
+        <v>1.80672175971182</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.9703604063365106</v>
+        <v>0.9739572363857292</v>
       </c>
       <c r="F11">
-        <v>4.614893082753923</v>
+        <v>4.596075158211875</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007310886755275432</v>
       </c>
       <c r="H11">
-        <v>1.913494721913793</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4928451223878554</v>
+        <v>1.916973898065763</v>
       </c>
       <c r="J11">
-        <v>1.392150731016685</v>
+        <v>0.4906639760587694</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.37724538201384</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.31695988640837</v>
+        <v>4.274887099218404</v>
       </c>
       <c r="C12">
-        <v>1.886047182820278</v>
+        <v>1.861578889982468</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.9984792663438355</v>
+        <v>1.002076776110101</v>
       </c>
       <c r="F12">
-        <v>4.753729146583993</v>
+        <v>4.734025073679902</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007281661363167356</v>
       </c>
       <c r="H12">
-        <v>1.964279061101323</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.507506928139307</v>
+        <v>1.96695541584792</v>
       </c>
       <c r="J12">
-        <v>1.433325333980505</v>
+        <v>0.5050448770693379</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.41797088244482</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.29047753422924</v>
+        <v>4.248669179431715</v>
       </c>
       <c r="C13">
-        <v>1.874026931780122</v>
+        <v>1.849715541840055</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.9924015065842156</v>
+        <v>0.9959990742610785</v>
       </c>
       <c r="F13">
-        <v>4.723698859486575</v>
+        <v>4.704187098108036</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007287959395687508</v>
       </c>
       <c r="H13">
-        <v>1.953272462018987</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5043274856653994</v>
+        <v>1.956122698137733</v>
       </c>
       <c r="J13">
-        <v>1.424425622971853</v>
+        <v>0.5019263328074643</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.409168361197374</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.204451385727111</v>
+        <v>4.163500648389004</v>
       </c>
       <c r="C14">
-        <v>1.835015864375634</v>
+        <v>1.811213171860061</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9726640577886201</v>
+        <v>0.9762610342195899</v>
       </c>
       <c r="F14">
-        <v>4.626257648346382</v>
+        <v>4.607367466837019</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.000730848398619674</v>
       </c>
       <c r="H14">
-        <v>1.917641955010382</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.494041686704854</v>
+        <v>1.92105551525438</v>
       </c>
       <c r="J14">
-        <v>1.395523964037821</v>
+        <v>0.4918376071115205</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.380581873368143</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.152011031795041</v>
+        <v>4.111582102514888</v>
       </c>
       <c r="C15">
-        <v>1.811262185980354</v>
+        <v>1.787768872765696</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9606366026522579</v>
+        <v>0.9642326372998866</v>
       </c>
       <c r="F15">
-        <v>4.566942128922022</v>
+        <v>4.548428543253522</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007321045869670479</v>
       </c>
       <c r="H15">
-        <v>1.896015504171686</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4878034897295507</v>
+        <v>1.899771349515518</v>
       </c>
       <c r="J15">
-        <v>1.377912254163249</v>
+        <v>0.485718991260768</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.363161897121302</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.855101183543013</v>
+        <v>3.817614393930228</v>
       </c>
       <c r="C16">
-        <v>1.677156588958837</v>
+        <v>1.655405783317804</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.8925956801254245</v>
+        <v>0.8961781860279245</v>
       </c>
       <c r="F16">
-        <v>4.232321864998852</v>
+        <v>4.215908937739499</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007392928393941108</v>
       </c>
       <c r="H16">
-        <v>1.774928871342766</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4529421908991793</v>
+        <v>1.780607950373678</v>
       </c>
       <c r="J16">
-        <v>1.278287838921145</v>
+        <v>0.4515272731475264</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.264618136579998</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.675892485180668</v>
+        <v>3.640173257546564</v>
       </c>
       <c r="C17">
-        <v>1.59652926105133</v>
+        <v>1.575823760333208</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.8515707058559059</v>
+        <v>0.8551383876998955</v>
       </c>
       <c r="F17">
-        <v>4.031379965156759</v>
+        <v>4.016210394717717</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007436982728114271</v>
       </c>
       <c r="H17">
-        <v>1.70298877322584</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4322814061834706</v>
+        <v>1.709817687927057</v>
       </c>
       <c r="J17">
-        <v>1.218231136972506</v>
+        <v>0.4312649034284064</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.205210331979302</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.573791210946126</v>
+        <v>3.5390769443012</v>
       </c>
       <c r="C18">
-        <v>1.550699576994077</v>
+        <v>1.530587870689772</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8282105148967958</v>
+        <v>0.8317675310072445</v>
       </c>
       <c r="F18">
-        <v>3.917253769525928</v>
+        <v>3.902784832422071</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007462324296775014</v>
       </c>
       <c r="H18">
-        <v>1.662398609176904</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4206400249721014</v>
+        <v>1.669879353577272</v>
       </c>
       <c r="J18">
-        <v>1.184039927085877</v>
+        <v>0.4198487379871523</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.171387947019042</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.539379640700929</v>
+        <v>3.505003804701062</v>
       </c>
       <c r="C19">
-        <v>1.535270849934363</v>
+        <v>1.515359024448458</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8203393600764883</v>
+        <v>0.8238924194250075</v>
       </c>
       <c r="F19">
-        <v>3.878848902894958</v>
+        <v>3.864614881530684</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000747090663199944</v>
       </c>
       <c r="H19">
-        <v>1.648784294343415</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4167378775808075</v>
+        <v>1.656484231884548</v>
       </c>
       <c r="J19">
-        <v>1.172520452311105</v>
+        <v>0.4160222195890455</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.159992659733618</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.694866427982845</v>
+        <v>3.658960293544965</v>
       </c>
       <c r="C20">
-        <v>1.605054514921449</v>
+        <v>1.584238536080704</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.8559128541953953</v>
+        <v>0.8594823408560615</v>
       </c>
       <c r="F20">
-        <v>4.052617387967359</v>
+        <v>4.037317007293581</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007432293190726581</v>
       </c>
       <c r="H20">
-        <v>1.71056380631228</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4344551957203038</v>
+        <v>1.717271336657774</v>
       </c>
       <c r="J20">
-        <v>1.224587055671535</v>
+        <v>0.4333967015948303</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.211497646260554</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.229665909309915</v>
+        <v>4.188464014091267</v>
       </c>
       <c r="C21">
-        <v>1.846444437852199</v>
+        <v>1.822492798490089</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.9784482631282003</v>
+        <v>0.9820455359440246</v>
       </c>
       <c r="F21">
-        <v>4.654800436302168</v>
+        <v>4.635728559613796</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007302457627243012</v>
       </c>
       <c r="H21">
-        <v>1.928065699915052</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4970497595633105</v>
+        <v>1.931314385363734</v>
       </c>
       <c r="J21">
-        <v>1.403993787897122</v>
+        <v>0.4947880348658131</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.388959403774422</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.590229755904431</v>
+        <v>4.545415463312509</v>
       </c>
       <c r="C22">
-        <v>2.010387848737821</v>
+        <v>1.984291364860837</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.061246285871462</v>
+        <v>1.064836502920059</v>
       </c>
       <c r="F22">
-        <v>5.064526030920206</v>
+        <v>5.042809976377555</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007217205552112471</v>
       </c>
       <c r="H22">
-        <v>2.078887068094744</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.540672742894742</v>
+        <v>2.079755537612471</v>
       </c>
       <c r="J22">
-        <v>1.525232573218261</v>
+        <v>0.5375756424313849</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.508870176332778</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.396652380095645</v>
+        <v>4.353782581287192</v>
       </c>
       <c r="C23">
-        <v>1.922250756000608</v>
+        <v>1.897309396088474</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.016774018909089</v>
+        <v>1.020370668217595</v>
       </c>
       <c r="F23">
-        <v>4.844193780770013</v>
+        <v>4.823908200912228</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.000726276518763692</v>
       </c>
       <c r="H23">
-        <v>1.997508194145496</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5171117092960955</v>
+        <v>1.999659926741259</v>
       </c>
       <c r="J23">
-        <v>1.460114344743474</v>
+        <v>0.5144657280726221</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.444466924860137</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.686285441758514</v>
+        <v>3.650463842404406</v>
       </c>
       <c r="C24">
-        <v>1.601198629082376</v>
+        <v>1.580432619426063</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.8539490724710959</v>
+        <v>0.8575177497902615</v>
       </c>
       <c r="F24">
-        <v>4.043011628420885</v>
+        <v>4.027770430749172</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007434413282253799</v>
       </c>
       <c r="H24">
-        <v>1.707136755267385</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.433471693691061</v>
+        <v>1.713899191866361</v>
       </c>
       <c r="J24">
-        <v>1.221712506499259</v>
+        <v>0.4324321956807395</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.208654126159175</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.956414987502853</v>
+        <v>2.927763670358843</v>
       </c>
       <c r="C25">
-        <v>1.27523282681193</v>
+        <v>1.258695421403957</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6871241355000635</v>
+        <v>0.6905823493013656</v>
       </c>
       <c r="F25">
-        <v>3.233009388039079</v>
+        <v>3.222669642471487</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007619827203246635</v>
       </c>
       <c r="H25">
-        <v>1.42341644889278</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3523071972090648</v>
+        <v>1.4347991428656</v>
       </c>
       <c r="J25">
-        <v>0.9776863682141652</v>
+        <v>0.3528541300300461</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9672578400756464</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,40 +409,46 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.416745945618061</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.033601438158485</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5726477533042527</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.662420110195399</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007758370024208983</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.247505983312564</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2996730966282897</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.797137900467078</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,40 +456,46 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.079671190214412</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.8862461049223782</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4948298481471411</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.297563830040289</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.0007854246153811017</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.129183767869137</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2661235773291679</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6851906847352183</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,40 +503,46 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.876182832863094</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.7977327296723331</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4478146331748079</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2.079331249421571</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007914294650807627</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.060013274444799</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2465107063008887</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6177150914867653</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,40 +550,46 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.793991919649244</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.7620781275736874</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.428812191969854</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.991654594169916</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.0007939088211678159</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.032599364673374</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2387346541469597</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5904841625085524</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,40 +597,46 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.78038453144805</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.7561806549626056</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4256653377076915</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.977166236187941</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0007943225417495542</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.028091253748045</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2374556496019444</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5859771567229828</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,40 +644,46 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.875071589708114</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.7972502952947309</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4475577699002002</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2.078143981912604</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0007914627683954873</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.059640555281192</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2464049992333202</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6173468325400506</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,40 +691,46 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.299710540148396</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.9823359049750877</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5456344751271516</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2.535288125802595</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
-        <v>0.0007791200012043979</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.205921926624143</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2878801970659239</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.758244418233204</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,40 +738,46 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.167344050090946</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.364916094773946</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7458916873243595</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3.488001008760705</v>
+        <v>1.895061171842784</v>
       </c>
       <c r="G9">
-        <v>0.0007557163202883857</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.525577227151786</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3786866132044366</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.047178873017458</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,40 +785,46 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.83799935638234</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.664563513962378</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.9008947077150822</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>4.23890043831463</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.0007387900541283146</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.78879611871848</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4538733059343656</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.271446649346913</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,40 +832,46 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.153557658288037</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1.80672175971182</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.9739572363857292</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>4.596075158211875</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007310886755275432</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.916973898065763</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4906639760587694</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.37724538201384</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,40 +879,46 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.274887099218404</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1.861578889982468</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.002076776110101</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>4.734025073679902</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007281661363167356</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.96695541584792</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5050448770693379</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.41797088244482</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,40 +926,46 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.248669179431715</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1.849715541840055</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.9959990742610785</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>4.704187098108036</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.0007287959395687508</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.956122698137733</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5019263328074643</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.409168361197374</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,40 +973,46 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.163500648389004</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1.811213171860061</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9762610342195899</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>4.607367466837019</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.000730848398619674</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.92105551525438</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4918376071115205</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.380581873368143</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,40 +1020,46 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.111582102514888</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1.787768872765696</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9642326372998866</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>4.548428543253522</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007321045869670479</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.899771349515518</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.485718991260768</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.363161897121302</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,40 +1067,46 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.817614393930228</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1.655405783317804</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.8961781860279245</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>4.215908937739499</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007392928393941108</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.780607950373678</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4515272731475264</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.264618136579998</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,40 +1114,46 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.640173257546564</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1.575823760333208</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.8551383876998955</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>4.016210394717717</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007436982728114271</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.709817687927057</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4312649034284064</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.205210331979302</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,40 +1161,46 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.5390769443012</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1.530587870689772</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8317675310072445</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>3.902784832422071</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007462324296775014</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.669879353577272</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4198487379871523</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.171387947019042</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,40 +1208,46 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.505003804701062</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1.515359024448458</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8238924194250075</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>3.864614881530684</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.000747090663199944</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.656484231884548</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4160222195890455</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.159992659733618</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,40 +1255,46 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.658960293544965</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1.584238536080704</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.8594823408560615</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>4.037317007293581</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007432293190726581</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.717271336657774</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4333967015948303</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.211497646260554</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,40 +1302,46 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.188464014091267</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1.822492798490089</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.9820455359440246</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>4.635728559613796</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007302457627243012</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.931314385363734</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4947880348658131</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.388959403774422</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,40 +1349,46 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.545415463312509</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1.984291364860837</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.064836502920059</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>5.042809976377555</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007217205552112471</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.079755537612471</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5375756424313849</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.508870176332778</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,40 +1396,46 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.353782581287192</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1.897309396088474</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.020370668217595</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>4.823908200912228</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.000726276518763692</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.999659926741259</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5144657280726221</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.444466924860137</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,40 +1443,46 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.650463842404406</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1.580432619426063</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.8575177497902615</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>4.027770430749172</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
-        <v>0.0007434413282253799</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.713899191866361</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4324321956807395</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.208654126159175</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,45 +1490,57 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.927763670358843</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1.258695421403957</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6905823493013656</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>3.222669642471487</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.0007619827203246635</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.4347991428656</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3528541300300461</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9672578400756464</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.647376996986338</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.040238835182464</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.443897227309364</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007677784859926732</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.03950273737666965</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.5950843909075871</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.176972021194388</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.9107046462096662</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.238405027504825</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007726702842540856</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.04991720130498223</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.5558143027571845</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.888655501085793</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.8313421968490502</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.114790158753493</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007757487151251011</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.05732386020687219</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.5370052767310938</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.771239736934149</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.7990277622047302</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.064959781659113</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007770228496358495</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.06057933836734453</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.5305631565516791</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.751746019130678</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.7936631052547796</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.056715582127453</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007772356285631356</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.06113375090520634</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.5295642067965645</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.887071752776308</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.8309063073675702</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.114116052555588</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007757658179036637</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.05736682630292655</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.5369135859804999</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3.485040769034867</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.9955290754227235</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.372449638040507</v>
       </c>
       <c r="F8">
-        <v>1.390742831773494</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007694501622140507</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.04287278446273746</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.5803742204501106</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4.664462895648342</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.320577776807056</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.904382070687291</v>
       </c>
       <c r="F9">
-        <v>1.895061171842784</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007576179923103332</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.02332603646003051</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.7131207114266545</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>5.539429959692029</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.562105846153088</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.318650349054863</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007491983666486032</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01566435086952556</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.8479744856608136</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>5.94040191670814</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.672922276293832</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.514317656868613</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007454113351186287</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01395690579614239</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.9195403313338488</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>6.092764927655196</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.715054374447561</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.58965693733181</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007439819591386202</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01359664526835402</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.9483111479741524</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>6.05992581516341</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.70597242346588</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.573372301294114</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007442896182619758</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0136609739443001</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.9420370898452859</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>5.952925802671814</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.676384934475607</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.520489629850289</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007452936548865783</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01392134066286577</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.9218726105215183</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>5.887456573258248</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.658284701218292</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.488266185953663</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007459092192435385</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01411907873752583</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.9097451870510156</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>5.513293055527924</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.554885419811455</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.306025197678849</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007494466006386924</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01581425427913086</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.8435197683713227</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>5.284577780043833</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.491717016293705</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.196211882672443</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007516266924445812</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01733029631289185</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.8056457800438466</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>5.153297353370533</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.455470906951746</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.133715191659064</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007528847805808976</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01836760119829428</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.7848103110581235</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>5.108891660946654</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.443212559191238</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.112663289443532</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007533115044426719</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0187463295935224</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.7779129733607562</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5.30889622242313</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.498432206216023</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.20783146855635</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007513941980618264</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01715159021204737</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.809577970397271</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>5.984339231236561</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1.685070648632177</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.535986977008307</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007449986306094621</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.0138368323790381</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.9277483528485391</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>6.428887830736187</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.808049026307458</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2.757828230217712</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007408452569067207</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01335616596493594</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.014827182366901</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>6.191303240980915</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.742309822012658</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.638675924011864</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007430601144934879</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01344738605507345</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.9673776629975919</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>5.297901204720915</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.495396052453259</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.202576286599523</v>
       </c>
       <c r="F24">
-        <v>2.170038921572853</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007514992939435556</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01723186935676679</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.8077973178777995</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4.344252849175575</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.232274247747455</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.757002146182259</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007607658944329313</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.02753826708336771</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.6713104364866354</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.647376996986338</v>
+        <v>1.196583684234042</v>
       </c>
       <c r="C2">
-        <v>1.040238835182464</v>
+        <v>0.3420668026630835</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.443897227309364</v>
+        <v>0.4264942120488229</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007677784859926732</v>
+        <v>0.002363637116791652</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.03950273737666965</v>
+        <v>0.2114591347574857</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5950843909075871</v>
+        <v>0.9672867250430812</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.176972021194388</v>
+        <v>1.046102572727136</v>
       </c>
       <c r="C3">
-        <v>0.9107046462096662</v>
+        <v>0.3005729275224382</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.238405027504825</v>
+        <v>0.3719544669308021</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0007726702842540856</v>
+        <v>0.002366613124064439</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.04991720130498223</v>
+        <v>0.219975127369783</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5558143027571845</v>
+        <v>0.9845322939446532</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.888655501085793</v>
+        <v>0.9533862914403812</v>
       </c>
       <c r="C4">
-        <v>0.8313421968490502</v>
+        <v>0.2749803947176304</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.114790158753493</v>
+        <v>0.3385623886600513</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0007757487151251011</v>
+        <v>0.002368533029871032</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.05732386020687219</v>
+        <v>0.2255542313631516</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5370052767310938</v>
+        <v>0.9967312379882287</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.771239736934149</v>
+        <v>0.9155252024470997</v>
       </c>
       <c r="C5">
-        <v>0.7990277622047302</v>
+        <v>0.2645227655571887</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.064959781659113</v>
+        <v>0.3249769051013374</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0007770228496358495</v>
+        <v>0.002369338774571923</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.06057933836734453</v>
+        <v>0.2279153481829637</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5305631565516791</v>
+        <v>1.002104328371558</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.751746019130678</v>
+        <v>0.9092337212333064</v>
       </c>
       <c r="C6">
-        <v>0.7936631052547796</v>
+        <v>0.2627845795160795</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.056715582127453</v>
+        <v>0.3227223210947727</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0007772356285631356</v>
+        <v>0.00236947398124443</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.06113375090520634</v>
+        <v>0.2283126856130089</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5295642067965645</v>
+        <v>1.003020714673468</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.887071752776308</v>
+        <v>0.9528759984121393</v>
       </c>
       <c r="C7">
-        <v>0.8309063073675702</v>
+        <v>0.2748394740696085</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.114116052555588</v>
+        <v>0.3383790833323417</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0007757658179036637</v>
+        <v>0.002368543801739093</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.05736682630292655</v>
+        <v>0.2255857202221101</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5369135859804999</v>
+        <v>0.9968020779166835</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.485040769034867</v>
+        <v>1.144765462767339</v>
       </c>
       <c r="C8">
-        <v>0.9955290754227235</v>
+        <v>0.3277838846451573</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.372449638040507</v>
+        <v>0.4076678744507518</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0007694501622140507</v>
+        <v>0.00236464406585063</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.04287278446273746</v>
+        <v>0.214322462938366</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5803742204501106</v>
+        <v>0.9728970473210268</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.664462895648342</v>
+        <v>1.518446807417149</v>
       </c>
       <c r="C9">
-        <v>1.320577776807056</v>
+        <v>0.4306782330368151</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.904382070687291</v>
+        <v>0.5443964008934898</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007576179923103332</v>
+        <v>0.002357728129746525</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02332603646003051</v>
+        <v>0.1950357710770465</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7131207114266545</v>
+        <v>0.9389275659667931</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.539429959692029</v>
+        <v>1.791329038949016</v>
       </c>
       <c r="C10">
-        <v>1.562105846153088</v>
+        <v>0.5056943825953226</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.318650349054863</v>
+        <v>0.6455126250994425</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007491983666486032</v>
+        <v>0.002353087950677465</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01566435086952556</v>
+        <v>0.1826020673085686</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8479744856608136</v>
+        <v>0.922022925739725</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.94040191670814</v>
+        <v>1.915097322337829</v>
       </c>
       <c r="C11">
-        <v>1.672922276293832</v>
+        <v>0.539692898105784</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.514317656868613</v>
+        <v>0.6916880816684454</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007454113351186287</v>
+        <v>0.00235107170596921</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01395690579614239</v>
+        <v>0.1773288776496038</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9195403313338488</v>
+        <v>0.916120723975439</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.092764927655196</v>
+        <v>1.96191077613355</v>
       </c>
       <c r="C12">
-        <v>1.715054374447561</v>
+        <v>0.5525486893321272</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.58965693733181</v>
+        <v>0.7092013862955184</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007439819591386202</v>
+        <v>0.002350321729141085</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01359664526835402</v>
+        <v>0.1753876562856505</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9483111479741524</v>
+        <v>0.9141460393713601</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.05992581516341</v>
+        <v>1.951831136435089</v>
       </c>
       <c r="C13">
-        <v>1.70597242346588</v>
+        <v>0.549780804408158</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.573372301294114</v>
+        <v>0.7054283174838076</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007442896182619758</v>
+        <v>0.00235048264931679</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0136609739443001</v>
+        <v>0.17580325047334</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9420370898452859</v>
+        <v>0.914559691714544</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.952925802671814</v>
+        <v>1.918949805726186</v>
       </c>
       <c r="C14">
-        <v>1.676384934475607</v>
+        <v>0.5407509294969941</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.520489629850289</v>
+        <v>0.6931283447976426</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007452936548865783</v>
+        <v>0.002351009734195058</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01392134066286577</v>
+        <v>0.1771680543044463</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9218726105215183</v>
+        <v>0.915953028912071</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.887456573258248</v>
+        <v>1.89880182868734</v>
       </c>
       <c r="C15">
-        <v>1.658284701218292</v>
+        <v>0.5352174196426063</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.488266185953663</v>
+        <v>0.6855979239808647</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007459092192435385</v>
+        <v>0.002351334348869076</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01411907873752583</v>
+        <v>0.1780112959677265</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9097451870510156</v>
+        <v>0.9168404907074716</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.513293055527924</v>
+        <v>1.783232920515559</v>
       </c>
       <c r="C16">
-        <v>1.554885419811455</v>
+        <v>0.5034699079803886</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.306025197678849</v>
+        <v>0.6424987017047243</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007494466006386924</v>
+        <v>0.002353221614432716</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01581425427913086</v>
+        <v>0.1829544359565363</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.8435197683713227</v>
+        <v>0.922444902748154</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.284577780043833</v>
+        <v>1.712239576930756</v>
       </c>
       <c r="C17">
-        <v>1.491717016293705</v>
+        <v>0.4839610341875868</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.196211882672443</v>
+        <v>0.6161056492322814</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0007516266924445812</v>
+        <v>0.0023544035682763</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01733029631289185</v>
+        <v>0.1860853702093674</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8056457800438466</v>
+        <v>0.9263432489847219</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.153297353370533</v>
+        <v>1.671371642887777</v>
       </c>
       <c r="C18">
-        <v>1.455470906951746</v>
+        <v>0.4727281481901855</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.133715191659064</v>
+        <v>0.6009416082069379</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007528847805808976</v>
+        <v>0.00235509230490061</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01836760119829428</v>
+        <v>0.1879222141424739</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7848103110581235</v>
+        <v>0.9287535553534951</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.108891660946654</v>
+        <v>1.657528612213014</v>
       </c>
       <c r="C19">
-        <v>1.443212559191238</v>
+        <v>0.4689228576090727</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.112663289443532</v>
+        <v>0.5958100999789053</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0007533115044426719</v>
+        <v>0.002355327031343277</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0187463295935224</v>
+        <v>0.188550306498894</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7779129733607562</v>
+        <v>0.9295984122913836</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.30889622242313</v>
+        <v>1.719800519367197</v>
       </c>
       <c r="C20">
-        <v>1.498432206216023</v>
+        <v>0.4860390220436557</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.20783146855635</v>
+        <v>0.6189135066490081</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007513941980618264</v>
+        <v>0.002354276825662348</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01715159021204737</v>
+        <v>0.1857483456903015</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.809577970397271</v>
+        <v>0.9259108440626136</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.984339231236561</v>
+        <v>1.928609356399591</v>
       </c>
       <c r="C21">
-        <v>1.685070648632177</v>
+        <v>0.5434037342341185</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.535986977008307</v>
+        <v>0.6967403766714995</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0007449986306094621</v>
+        <v>0.00235085454991631</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.0138368323790381</v>
+        <v>0.1767656643904933</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9277483528485391</v>
+        <v>0.9155366800606828</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.428887830736187</v>
+        <v>2.064757001980013</v>
       </c>
       <c r="C22">
-        <v>1.808049026307458</v>
+        <v>0.5807856220349095</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.757828230217712</v>
+        <v>0.7477670003336954</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007408452569067207</v>
+        <v>0.002348696732730912</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01335616596493594</v>
+        <v>0.1712194226987487</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.014827182366901</v>
+        <v>0.9102756130421312</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.191303240980915</v>
+        <v>1.992122497827211</v>
       </c>
       <c r="C23">
-        <v>1.742309822012658</v>
+        <v>0.5608443615416263</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.638675924011864</v>
+        <v>0.7205175549010079</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007430601144934879</v>
+        <v>0.002349841210220663</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01344738605507345</v>
+        <v>0.17414968547107</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9673776629975919</v>
+        <v>0.9129434683832187</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.297901204720915</v>
+        <v>1.716382381956635</v>
       </c>
       <c r="C24">
-        <v>1.495396052453259</v>
+        <v>0.4850996165733932</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.202576286599523</v>
+        <v>0.6176440443557567</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007514992939435556</v>
+        <v>0.002354334097266555</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01723186935676679</v>
+        <v>0.1859005998010996</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8077973178777995</v>
+        <v>0.9261058078616173</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.344252849175575</v>
+        <v>1.417643088198815</v>
       </c>
       <c r="C25">
-        <v>1.232274247747455</v>
+        <v>0.402943549143572</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.757002146182259</v>
+        <v>0.5073018126816606</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007607658944329313</v>
+        <v>0.002359521280928687</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.02753826708336771</v>
+        <v>0.199950531579419</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6713104364866354</v>
+        <v>0.9467163562435701</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.196583684234042</v>
+        <v>3.647376996986509</v>
       </c>
       <c r="C2">
-        <v>0.3420668026630835</v>
+        <v>1.040238835182464</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4264942120488229</v>
+        <v>1.44389722730935</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002363637116791652</v>
+        <v>0.0007677784860505092</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2114591347574857</v>
+        <v>0.03950273737665277</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9672867250430812</v>
+        <v>0.5950843909075729</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.046102572727136</v>
+        <v>3.176972021194274</v>
       </c>
       <c r="C3">
-        <v>0.3005729275224382</v>
+        <v>0.9107046462098936</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3719544669308021</v>
+        <v>1.238405027504868</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002366613124064439</v>
+        <v>0.0007726702843403321</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.219975127369783</v>
+        <v>0.04991720130498045</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9845322939446532</v>
+        <v>0.5558143027571845</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9533862914403812</v>
+        <v>2.888655501085907</v>
       </c>
       <c r="C4">
-        <v>0.2749803947176304</v>
+        <v>0.8313421968492207</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3385623886600513</v>
+        <v>1.114790158753522</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002368533029871032</v>
+        <v>0.0007757487151390628</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2255542313631516</v>
+        <v>0.05732386020688374</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9967312379882287</v>
+        <v>0.5370052767310938</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9155252024470997</v>
+        <v>2.771239736934149</v>
       </c>
       <c r="C5">
-        <v>0.2645227655571887</v>
+        <v>0.7990277622047302</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3249769051013374</v>
+        <v>1.064959781659127</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002369338774571923</v>
+        <v>0.0007770228495923056</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2279153481829637</v>
+        <v>0.06057933836734097</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.002104328371558</v>
+        <v>0.530563156551608</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9092337212333064</v>
+        <v>2.751746019130678</v>
       </c>
       <c r="C6">
-        <v>0.2627845795160795</v>
+        <v>0.7936631052547796</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3227223210947727</v>
+        <v>1.056715582127453</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.00236947398124443</v>
+        <v>0.0007772356285755279</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2283126856130089</v>
+        <v>0.06113375090520545</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.003020714673468</v>
+        <v>0.5295642067965645</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9528759984121393</v>
+        <v>2.887071752776592</v>
       </c>
       <c r="C7">
-        <v>0.2748394740696085</v>
+        <v>0.8309063073675702</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3383790833323417</v>
+        <v>1.114116052555588</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002368543801739093</v>
+        <v>0.0007757658179054401</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2255857202221101</v>
+        <v>0.05736682630294254</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9968020779166835</v>
+        <v>0.5369135859805283</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.144765462767339</v>
+        <v>3.485040769034867</v>
       </c>
       <c r="C8">
-        <v>0.3277838846451573</v>
+        <v>0.9955290754224393</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4076678744507518</v>
+        <v>1.372449638040521</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.00236464406585063</v>
+        <v>0.0007694501623288058</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.214322462938366</v>
+        <v>0.04287278446274012</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9728970473210268</v>
+        <v>0.5803742204500537</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.518446807417149</v>
+        <v>4.664462895648114</v>
       </c>
       <c r="C9">
-        <v>0.4306782330368151</v>
+        <v>1.320577776806886</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5443964008934898</v>
+        <v>1.904382070687262</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002357728129746525</v>
+        <v>0.0007576179923644566</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1950357710770465</v>
+        <v>0.02332603646004205</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9389275659667931</v>
+        <v>0.7131207114266971</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.791329038949016</v>
+        <v>5.539429959692256</v>
       </c>
       <c r="C10">
-        <v>0.5056943825953226</v>
+        <v>1.562105846153258</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6455126250994425</v>
+        <v>2.318650349054835</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002353087950677465</v>
+        <v>0.0007491983666483848</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1826020673085686</v>
+        <v>0.01566435086952467</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.922022925739725</v>
+        <v>0.8479744856607851</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.915097322337829</v>
+        <v>5.940401916708254</v>
       </c>
       <c r="C11">
-        <v>0.539692898105784</v>
+        <v>1.672922276294059</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6916880816684454</v>
+        <v>2.514317656868627</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.00235107170596921</v>
+        <v>0.000745411335193284</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1773288776496038</v>
+        <v>0.01395690579612996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.916120723975439</v>
+        <v>0.9195403313338488</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.96191077613355</v>
+        <v>6.092764927655082</v>
       </c>
       <c r="C12">
-        <v>0.5525486893321272</v>
+        <v>1.715054374447618</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7092013862955184</v>
+        <v>2.589656937331782</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002350321729141085</v>
+        <v>0.0007439819591380796</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1753876562856505</v>
+        <v>0.01359664526835402</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9141460393713601</v>
+        <v>0.9483111479742092</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.951831136435089</v>
+        <v>6.059925815163467</v>
       </c>
       <c r="C13">
-        <v>0.549780804408158</v>
+        <v>1.705972423465653</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7054283174838076</v>
+        <v>2.573372301294071</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.00235048264931679</v>
+        <v>0.0007442896182051628</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.17580325047334</v>
+        <v>0.01366097394431343</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.914559691714544</v>
+        <v>0.9420370898451722</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.918949805726186</v>
+        <v>5.952925802672041</v>
       </c>
       <c r="C14">
-        <v>0.5407509294969941</v>
+        <v>1.676384934475664</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6931283447976426</v>
+        <v>2.520489629850303</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002351009734195058</v>
+        <v>0.0007452936548303747</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1771680543044463</v>
+        <v>0.01392134066286577</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.915953028912071</v>
+        <v>0.9218726105215183</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.89880182868734</v>
+        <v>5.887456573257907</v>
       </c>
       <c r="C15">
-        <v>0.5352174196426063</v>
+        <v>1.658284701217724</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6855979239808647</v>
+        <v>2.488266185953648</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002351334348869076</v>
+        <v>0.0007459092191866395</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1780112959677265</v>
+        <v>0.01411907873753915</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9168404907074716</v>
+        <v>0.9097451870509587</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.783232920515559</v>
+        <v>5.51329305552764</v>
       </c>
       <c r="C16">
-        <v>0.5034699079803886</v>
+        <v>1.554885419811342</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6424987017047243</v>
+        <v>2.306025197678878</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002353221614432716</v>
+        <v>0.000749446600654871</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1829544359565363</v>
+        <v>0.01581425427914329</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.922444902748154</v>
+        <v>0.8435197683713227</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.712239576930756</v>
+        <v>5.28457778004389</v>
       </c>
       <c r="C17">
-        <v>0.4839610341875868</v>
+        <v>1.491717016293592</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6161056492322814</v>
+        <v>2.196211882672443</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0023544035682763</v>
+        <v>0.0007516266924438157</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1860853702093674</v>
+        <v>0.01733029631289096</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9263432489847219</v>
+        <v>0.8056457800438466</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.671371642887777</v>
+        <v>5.153297353370533</v>
       </c>
       <c r="C18">
-        <v>0.4727281481901855</v>
+        <v>1.455470906951632</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6009416082069379</v>
+        <v>2.133715191659064</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.00235509230490061</v>
+        <v>0.0007528847805968399</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1879222141424739</v>
+        <v>0.01836760119829162</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9287535553534951</v>
+        <v>0.7848103110581803</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.657528612213014</v>
+        <v>5.108891660946824</v>
       </c>
       <c r="C19">
-        <v>0.4689228576090727</v>
+        <v>1.443212559191238</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5958100999789053</v>
+        <v>2.112663289443546</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002355327031343277</v>
+        <v>0.0007533115045328942</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.188550306498894</v>
+        <v>0.01874632959351974</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9295984122913836</v>
+        <v>0.7779129733607562</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.719800519367197</v>
+        <v>5.30889622242313</v>
       </c>
       <c r="C20">
-        <v>0.4860390220436557</v>
+        <v>1.498432206215966</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6189135066490081</v>
+        <v>2.207831468556392</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002354276825662348</v>
+        <v>0.0007513941981014267</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1857483456903015</v>
+        <v>0.01715159021206158</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9259108440626136</v>
+        <v>0.8095779703972426</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.928609356399591</v>
+        <v>5.98433923123639</v>
       </c>
       <c r="C21">
-        <v>0.5434037342341185</v>
+        <v>1.685070648632461</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6967403766714995</v>
+        <v>2.535986977008335</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.00235085454991631</v>
+        <v>0.0007449986306103475</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1767656643904933</v>
+        <v>0.01383683237903988</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9155366800606828</v>
+        <v>0.9277483528484538</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.064757001980013</v>
+        <v>6.428887830736187</v>
       </c>
       <c r="C22">
-        <v>0.5807856220349095</v>
+        <v>1.808049026307515</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7477670003336954</v>
+        <v>2.757828230217697</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002348696732730912</v>
+        <v>0.0007408452568515943</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1712194226987487</v>
+        <v>0.01335616596493772</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9102756130421312</v>
+        <v>1.014827182366901</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.992122497827211</v>
+        <v>6.191303240980631</v>
       </c>
       <c r="C23">
-        <v>0.5608443615416263</v>
+        <v>1.742309822012714</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7205175549010079</v>
+        <v>2.638675924011835</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002349841210220663</v>
+        <v>0.0007430601144728932</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.17414968547107</v>
+        <v>0.01344738605508589</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9129434683832187</v>
+        <v>0.9673776629976203</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.716382381956635</v>
+        <v>5.297901204721029</v>
       </c>
       <c r="C24">
-        <v>0.4850996165733932</v>
+        <v>1.495396052453486</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6176440443557567</v>
+        <v>2.202576286599566</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002354334097266555</v>
+        <v>0.0007514992938864906</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1859005998010996</v>
+        <v>0.01723186935676591</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9261058078616173</v>
+        <v>0.8077973178777427</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.417643088198815</v>
+        <v>4.344252849175803</v>
       </c>
       <c r="C25">
-        <v>0.402943549143572</v>
+        <v>1.232274247747455</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5073018126816606</v>
+        <v>1.757002146182245</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002359521280928687</v>
+        <v>0.0007607658944335002</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.199950531579419</v>
+        <v>0.02753826708336593</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9467163562435701</v>
+        <v>0.6713104364865643</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.647376996986509</v>
+        <v>0.8915020017428503</v>
       </c>
       <c r="C2">
-        <v>1.040238835182464</v>
+        <v>0.09717058331516881</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.44389722730935</v>
+        <v>0.03774972484987771</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007677784860505092</v>
+        <v>0.7858848697222243</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01881420584900784</v>
       </c>
       <c r="I2">
-        <v>0.03950273737665277</v>
+        <v>0.02443311707633455</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6021136069763315</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.659042397467271</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8194788612298112</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.152049052877878</v>
       </c>
       <c r="O2">
-        <v>0.5950843909075729</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1993009851051397</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.176972021194274</v>
+        <v>0.7764689074368221</v>
       </c>
       <c r="C3">
-        <v>0.9107046462098936</v>
+        <v>0.0869269187583015</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.238405027504868</v>
+        <v>0.034458918911076</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007726702843403321</v>
+        <v>0.7686211541958698</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0224499350806775</v>
       </c>
       <c r="I3">
-        <v>0.04991720130498045</v>
+        <v>0.02878422021630467</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5990648245845023</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6544659309321901</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7134324153747684</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1343629760561313</v>
       </c>
       <c r="O3">
-        <v>0.5558143027571845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1740523972748385</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.888655501085907</v>
+        <v>0.7057189100045775</v>
       </c>
       <c r="C4">
-        <v>0.8313421968492207</v>
+        <v>0.0807288117033238</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.114790158753522</v>
+        <v>0.03242240553891129</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007757487151390628</v>
+        <v>0.758198606432714</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.02492817622773147</v>
       </c>
       <c r="I4">
-        <v>0.05732386020688374</v>
+        <v>0.03176935439681294</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5973471837738913</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6516780245328135</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6484268412143877</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1235199622595786</v>
       </c>
       <c r="O4">
-        <v>0.5370052767310938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.158543323950294</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.771239736934149</v>
+        <v>0.6766252370185555</v>
       </c>
       <c r="C5">
-        <v>0.7990277622047302</v>
+        <v>0.07838872077511638</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.064959781659127</v>
+        <v>0.03155398070662052</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007770228495923056</v>
+        <v>0.7524633528660871</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02600638830404367</v>
       </c>
       <c r="I5">
-        <v>0.06057933836734097</v>
+        <v>0.03316474837446481</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5958860295140198</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6494431341304541</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6222100169430007</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1191441149444259</v>
       </c>
       <c r="O5">
-        <v>0.530563156551608</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1522073007540392</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.751746019130678</v>
+        <v>0.6715128346709207</v>
       </c>
       <c r="C6">
-        <v>0.7936631052547796</v>
+        <v>0.07820515532215211</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.056715582127453</v>
+        <v>0.03136788950563485</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0007772356285755279</v>
+        <v>0.7496486073358568</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02619936489370878</v>
       </c>
       <c r="I6">
-        <v>0.06113375090520545</v>
+        <v>0.03353351647957314</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5946714918619449</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.647727076546019</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6181685965414374</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1184667387127334</v>
       </c>
       <c r="O6">
-        <v>0.5295642067965645</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1511389150692608</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.887071752776592</v>
+        <v>0.7045604635354721</v>
       </c>
       <c r="C7">
-        <v>0.8309063073675702</v>
+        <v>0.08125494496381691</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.114116052555588</v>
+        <v>0.03229696050017949</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0007757658179054401</v>
+        <v>0.7530316181040462</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0249695902051903</v>
       </c>
       <c r="I7">
-        <v>0.05736682630294254</v>
+        <v>0.03213131369476852</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5946724001083794</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6479785538092386</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6489235062449694</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1235956016010604</v>
       </c>
       <c r="O7">
-        <v>0.5369135859805283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1584136213879539</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.485040769034867</v>
+        <v>0.8508311471315722</v>
       </c>
       <c r="C8">
-        <v>0.9955290754224393</v>
+        <v>0.09436310485028088</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.372449638040521</v>
+        <v>0.0364671951158595</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007694501623288058</v>
+        <v>0.7731964692983269</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0200458672656092</v>
       </c>
       <c r="I8">
-        <v>0.04287278446274012</v>
+        <v>0.02627784135144751</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5975507018019499</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6526440651587357</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7840178018921051</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1461272999551895</v>
       </c>
       <c r="O8">
-        <v>0.5803742204500537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1905358104707169</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.664462895648114</v>
+        <v>1.138348978220563</v>
       </c>
       <c r="C9">
-        <v>1.320577776806886</v>
+        <v>0.1199352647696799</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.904382070687262</v>
+        <v>0.04474566879550146</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007576179923644566</v>
+        <v>0.8234019210596557</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0123988475038842</v>
       </c>
       <c r="I9">
-        <v>0.02332603646004205</v>
+        <v>0.01688127668531614</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6091946868879177</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6685209609248872</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.048620190208567</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1902634064637994</v>
       </c>
       <c r="O9">
-        <v>0.7131207114266971</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2536200755327123</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.539429959692256</v>
+        <v>1.34877326749023</v>
       </c>
       <c r="C10">
-        <v>1.562105846153258</v>
+        <v>0.1414979748977885</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.318650349054835</v>
+        <v>0.04809527446846751</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007491983666483848</v>
+        <v>0.8349858033472515</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.008591417221143427</v>
       </c>
       <c r="I10">
-        <v>0.01566435086952467</v>
+        <v>0.01200548397296153</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6050043768497204</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6621159052919197</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.248955018782709</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2114290368856189</v>
       </c>
       <c r="O10">
-        <v>0.8479744856607851</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2946620995037676</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.940401916708254</v>
+        <v>1.44031394907077</v>
       </c>
       <c r="C11">
-        <v>1.672922276294059</v>
+        <v>0.1693163196324008</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.514317656868627</v>
+        <v>0.03179675677193572</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.000745411335193284</v>
+        <v>0.6429440465509799</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02725076206468557</v>
       </c>
       <c r="I11">
-        <v>0.01395690579612996</v>
+        <v>0.01149927926501704</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5013150252879797</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5266610743693683</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.37999572387946</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1331033967254669</v>
       </c>
       <c r="O11">
-        <v>0.9195403313338488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2675988814674639</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.092764927655082</v>
+        <v>1.474466504453034</v>
       </c>
       <c r="C12">
-        <v>1.715054374447618</v>
+        <v>0.1894294241061516</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.589656937331782</v>
+        <v>0.02460637005376176</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007439819591380796</v>
+        <v>0.5093303345509455</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06631502561752711</v>
       </c>
       <c r="I12">
-        <v>0.01359664526835402</v>
+        <v>0.01135449776504949</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4298463785282252</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.438629127508154</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.448809028032031</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07869365901106562</v>
       </c>
       <c r="O12">
-        <v>0.9483111479742092</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.237515391097439</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.059925815163467</v>
+        <v>1.464847287521508</v>
       </c>
       <c r="C13">
-        <v>1.705972423465653</v>
+        <v>0.2054012536493985</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.573372301294071</v>
+        <v>0.02372116840724736</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.0007442896182051628</v>
+        <v>0.4043541088750828</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1227940348685053</v>
       </c>
       <c r="I13">
-        <v>0.01366097394431343</v>
+        <v>0.01192339207124959</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3744781871871155</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3756623192679118</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.474340574063973</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.03985048311442441</v>
       </c>
       <c r="O13">
-        <v>0.9420370898451722</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2035115471793318</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.952925802672041</v>
+        <v>1.438063520956405</v>
       </c>
       <c r="C14">
-        <v>1.676384934475664</v>
+        <v>0.2150992759311521</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.520489629850303</v>
+        <v>0.0268542604740496</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007452936548303747</v>
+        <v>0.3462867501798641</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1727918704166314</v>
       </c>
       <c r="I14">
-        <v>0.01392134066286577</v>
+        <v>0.01275646388544338</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3441028695456581</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3449833958287645</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.472883876629908</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.02207595030410836</v>
       </c>
       <c r="O14">
-        <v>0.9218726105215183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1783518669701039</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.887456573257907</v>
+        <v>1.421866515743119</v>
       </c>
       <c r="C15">
-        <v>1.658284701217724</v>
+        <v>0.2166130157917792</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.488266185953648</v>
+        <v>0.02803568923661537</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007459092191866395</v>
+        <v>0.3344777200026066</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1856071933568586</v>
       </c>
       <c r="I15">
-        <v>0.01411907873753915</v>
+        <v>0.01327996817177723</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3382493698717894</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.339900243602866</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.463344651841709</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.01897483355744889</v>
       </c>
       <c r="O15">
-        <v>0.9097451870509587</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1712653709151155</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.51329305552764</v>
+        <v>1.332531372116449</v>
       </c>
       <c r="C16">
-        <v>1.554885419811342</v>
+        <v>0.2037975488044026</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.306025197678878</v>
+        <v>0.02675376616525504</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.000749446600654871</v>
+        <v>0.3484775999816137</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1745227188405352</v>
       </c>
       <c r="I16">
-        <v>0.01581425427914329</v>
+        <v>0.01537456655819192</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3496438732093168</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3533438273810052</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.370932460558919</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.01901986252195798</v>
       </c>
       <c r="O16">
-        <v>0.8435197683713227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1615164111594467</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.28457778004389</v>
+        <v>1.278380746888757</v>
       </c>
       <c r="C17">
-        <v>1.491717016293592</v>
+        <v>0.1887912725931642</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.196211882672443</v>
+        <v>0.02346842439394869</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007516266924438157</v>
+        <v>0.3878446947149925</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1376872114384895</v>
       </c>
       <c r="I17">
-        <v>0.01733029631289096</v>
+        <v>0.01659891905726507</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3735459087187536</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3782089524175447</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.301125424962805</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.02684361273384184</v>
       </c>
       <c r="O17">
-        <v>0.8056457800438466</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1670963652351389</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.153297353370533</v>
+        <v>1.248877533596271</v>
       </c>
       <c r="C18">
-        <v>1.455470906951632</v>
+        <v>0.1703903147385546</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.133715191659064</v>
+        <v>0.02151023147401565</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007528847805968399</v>
+        <v>0.4673657065902006</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08500799647811164</v>
       </c>
       <c r="I18">
-        <v>0.01836760119829162</v>
+        <v>0.0167130186819735</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4177551921343863</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4267186168852888</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.242551205717859</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05033437693392884</v>
       </c>
       <c r="O18">
-        <v>0.7848103110581803</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1873550479339237</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.108891660946824</v>
+        <v>1.239779120204417</v>
       </c>
       <c r="C19">
-        <v>1.443212559191238</v>
+        <v>0.153409292194894</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.112663289443546</v>
+        <v>0.02585117398732795</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0007533115045328942</v>
+        <v>0.5858590091082405</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03893770879292191</v>
       </c>
       <c r="I19">
-        <v>0.01874632959351974</v>
+        <v>0.01645400199276992</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4808081003958833</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5019775314881905</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.199835068067756</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0971265178077374</v>
       </c>
       <c r="O19">
-        <v>0.7779129733607562</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2193351790309883</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.30889622242313</v>
+        <v>1.290995597161583</v>
       </c>
       <c r="C20">
-        <v>1.498432206215966</v>
+        <v>0.1376778084773633</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.207831468556392</v>
+        <v>0.04675498724670923</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007513941981014267</v>
+        <v>0.8155498238880625</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.009536767577451588</v>
       </c>
       <c r="I20">
-        <v>0.01715159021206158</v>
+        <v>0.01413345009976741</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5976291475799655</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6521962873293177</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.19911034927199</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2058004698239273</v>
       </c>
       <c r="O20">
-        <v>0.8095779703972426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2835111552014169</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.98433923123639</v>
+        <v>1.453567914153837</v>
       </c>
       <c r="C21">
-        <v>1.685070648632461</v>
+        <v>0.1514585382067679</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.535986977008335</v>
+        <v>0.05348975191423833</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007449986306103475</v>
+        <v>0.8655541523423551</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.006445688372336056</v>
       </c>
       <c r="I21">
-        <v>0.01383683237903988</v>
+        <v>0.01058647986672057</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.615642579772711</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6752898792695703</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.346295967476578</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2399197835961502</v>
       </c>
       <c r="O21">
-        <v>0.9277483528484538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3234051068130768</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.428887830736187</v>
+        <v>1.56081166579844</v>
       </c>
       <c r="C22">
-        <v>1.808049026307515</v>
+        <v>0.1608102895326624</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.757828230217697</v>
+        <v>0.05670265962704057</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007408452568515943</v>
+        <v>0.8927634676148983</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.004914107183719096</v>
       </c>
       <c r="I22">
-        <v>0.01335616596493772</v>
+        <v>0.008331851330840578</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6246300598275667</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6866566656388358</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.443940901790512</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2562207022782701</v>
       </c>
       <c r="O22">
-        <v>1.014827182366901</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3468574042381718</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.191303240980631</v>
+        <v>1.504519354576757</v>
       </c>
       <c r="C23">
-        <v>1.742309822012714</v>
+        <v>0.1551076234729152</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.638675924011835</v>
+        <v>0.05512250181587675</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.0007430601144728932</v>
+        <v>0.8840174673633925</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.005690949218505603</v>
       </c>
       <c r="I23">
-        <v>0.01344738605508589</v>
+        <v>0.009141698012231636</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6227996645278466</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6847219279815064</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.39076690333053</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2473464948065924</v>
       </c>
       <c r="O23">
-        <v>0.9673776629976203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3343930920109202</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.297901204721029</v>
+        <v>1.290063900030276</v>
       </c>
       <c r="C24">
-        <v>1.495396052453486</v>
+        <v>0.1350085023825187</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.202576286599566</v>
+        <v>0.04894181609565429</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007514992938864906</v>
+        <v>0.8426480334200193</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.009250301170643016</v>
       </c>
       <c r="I24">
-        <v>0.01723186935676591</v>
+        <v>0.01350709113491355</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6117031190677125</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6711689123314102</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.191805415651288</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2141443811403434</v>
       </c>
       <c r="O24">
-        <v>0.8077973178777427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2871993646860957</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.344252849175803</v>
+        <v>1.0591761057361</v>
       </c>
       <c r="C25">
-        <v>1.232274247747455</v>
+        <v>0.1139383673247636</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.757002146182245</v>
+        <v>0.04230724880982351</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.0007607658944335002</v>
+        <v>0.8005709421653364</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0142666220973362</v>
       </c>
       <c r="I25">
-        <v>0.02753826708336593</v>
+        <v>0.0196816963019959</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6012151751305908</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6577162364805886</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9784067766120472</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.178543260041053</v>
       </c>
       <c r="O25">
-        <v>0.6713104364865643</v>
+        <v>0.2364588803690637</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8915020017428503</v>
+        <v>0.8801713050820865</v>
       </c>
       <c r="C2">
-        <v>0.09717058331516881</v>
+        <v>0.0997393163750786</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03774972484987771</v>
+        <v>0.03643077193005517</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.7858848697222243</v>
+        <v>0.6344151643856435</v>
       </c>
       <c r="H2">
-        <v>0.01881420584900784</v>
+        <v>0.01469305035370722</v>
       </c>
       <c r="I2">
-        <v>0.02443311707633455</v>
+        <v>0.01755531024253854</v>
       </c>
       <c r="J2">
-        <v>0.6021136069763315</v>
+        <v>0.5175544489243862</v>
       </c>
       <c r="K2">
-        <v>0.659042397467271</v>
+        <v>0.5356390284982702</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2166747280188126</v>
       </c>
       <c r="M2">
-        <v>0.8194788612298112</v>
+        <v>0.1855421825759507</v>
       </c>
       <c r="N2">
-        <v>0.152049052877878</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1993009851051397</v>
+        <v>0.8471278405797023</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1626672915430589</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1989959629339531</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7764689074368221</v>
+        <v>0.7677450505913725</v>
       </c>
       <c r="C3">
-        <v>0.0869269187583015</v>
+        <v>0.08706876548176012</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.034458918911076</v>
+        <v>0.03367122530632827</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.7686211541958698</v>
+        <v>0.634552996508738</v>
       </c>
       <c r="H3">
-        <v>0.0224499350806775</v>
+        <v>0.0176123288894785</v>
       </c>
       <c r="I3">
-        <v>0.02878422021630467</v>
+        <v>0.02073126065609898</v>
       </c>
       <c r="J3">
-        <v>0.5990648245845023</v>
+        <v>0.5168866023363847</v>
       </c>
       <c r="K3">
-        <v>0.6544659309321901</v>
+        <v>0.5403547618354452</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2217954973925416</v>
       </c>
       <c r="M3">
-        <v>0.7134324153747684</v>
+        <v>0.1857293699401588</v>
       </c>
       <c r="N3">
-        <v>0.1343629760561313</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1740523972748385</v>
+        <v>0.7370806468910303</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1446004075235976</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1738252244012806</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7057189100045775</v>
+        <v>0.6984974864698472</v>
       </c>
       <c r="C4">
-        <v>0.0807288117033238</v>
+        <v>0.07943775429434652</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03242240553891129</v>
+        <v>0.03195688090556281</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.758198606432714</v>
+        <v>0.6349043693311032</v>
       </c>
       <c r="H4">
-        <v>0.02492817622773147</v>
+        <v>0.01960677171471586</v>
       </c>
       <c r="I4">
-        <v>0.03176935439681294</v>
+        <v>0.02292976987638573</v>
       </c>
       <c r="J4">
-        <v>0.5973471837738913</v>
+        <v>0.5164157967750356</v>
       </c>
       <c r="K4">
-        <v>0.6516780245328135</v>
+        <v>0.5432530700878253</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.224927974033438</v>
       </c>
       <c r="M4">
-        <v>0.6484268412143877</v>
+        <v>0.1863752290106362</v>
       </c>
       <c r="N4">
-        <v>0.1235199622595786</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.158543323950294</v>
+        <v>0.6695908307554816</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.133527554568758</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1583526156843043</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6766252370185555</v>
+        <v>0.6700189322147878</v>
       </c>
       <c r="C5">
-        <v>0.07838872077511638</v>
+        <v>0.07653345469603323</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03155398070662052</v>
+        <v>0.03122429381901526</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7524633528660871</v>
+        <v>0.6339353849992548</v>
       </c>
       <c r="H5">
-        <v>0.02600638830404367</v>
+        <v>0.02047552677963488</v>
       </c>
       <c r="I5">
-        <v>0.03316474837446481</v>
+        <v>0.02399748196290297</v>
       </c>
       <c r="J5">
-        <v>0.5958860295140198</v>
+        <v>0.5155699427765583</v>
       </c>
       <c r="K5">
-        <v>0.6494431341304541</v>
+        <v>0.5436056911734219</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2258153903393243</v>
       </c>
       <c r="M5">
-        <v>0.6222100169430007</v>
+        <v>0.1865383525243391</v>
       </c>
       <c r="N5">
-        <v>0.1191441149444259</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1522073007540392</v>
+        <v>0.6423266534839627</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1290534615252099</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1520304131745469</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6715128346709207</v>
+        <v>0.6650394528708432</v>
       </c>
       <c r="C6">
-        <v>0.07820515532215211</v>
+        <v>0.0762637272393647</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03136788950563485</v>
+        <v>0.03106737302371521</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.7496486073358568</v>
+        <v>0.632346860490081</v>
       </c>
       <c r="H6">
-        <v>0.02619936489370878</v>
+        <v>0.02063108608117536</v>
       </c>
       <c r="I6">
-        <v>0.03353351647957314</v>
+        <v>0.02432303838281413</v>
       </c>
       <c r="J6">
-        <v>0.5946714918619449</v>
+        <v>0.5146500673033216</v>
       </c>
       <c r="K6">
-        <v>0.647727076546019</v>
+        <v>0.5426555344798807</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.22549328360952</v>
       </c>
       <c r="M6">
-        <v>0.6181685965414374</v>
+        <v>0.1862886847303358</v>
       </c>
       <c r="N6">
-        <v>0.1184667387127334</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1511389150692608</v>
+        <v>0.6380749921139568</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1283527371037962</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1509660809447873</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7045604635354721</v>
+        <v>0.6977173083763546</v>
       </c>
       <c r="C7">
-        <v>0.08125494496381691</v>
+        <v>0.07969092182712956</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03229696050017949</v>
+        <v>0.03187694521019857</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7530316181040462</v>
+        <v>0.6323169355041998</v>
       </c>
       <c r="H7">
-        <v>0.0249695902051903</v>
+        <v>0.01965192117660575</v>
       </c>
       <c r="I7">
-        <v>0.03213131369476852</v>
+        <v>0.02333537505148087</v>
       </c>
       <c r="J7">
-        <v>0.5946724001083794</v>
+        <v>0.5092422908580403</v>
       </c>
       <c r="K7">
-        <v>0.6479785538092386</v>
+        <v>0.5391872302851439</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2230865530507664</v>
       </c>
       <c r="M7">
-        <v>0.6489235062449694</v>
+        <v>0.1851868929546914</v>
       </c>
       <c r="N7">
-        <v>0.1235956016010604</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1584136213879539</v>
+        <v>0.6695853832194274</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1335048505608611</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.158243367340738</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8508311471315722</v>
+        <v>0.8414806032862714</v>
       </c>
       <c r="C8">
-        <v>0.09436310485028088</v>
+        <v>0.09515245649818382</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0364671951158595</v>
+        <v>0.03544365629647395</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.7731964692983269</v>
+        <v>0.6337972229868427</v>
       </c>
       <c r="H8">
-        <v>0.0200458672656092</v>
+        <v>0.01571332007239862</v>
       </c>
       <c r="I8">
-        <v>0.02627784135144751</v>
+        <v>0.01909560980203562</v>
       </c>
       <c r="J8">
-        <v>0.5975507018019499</v>
+        <v>0.4983653708713831</v>
       </c>
       <c r="K8">
-        <v>0.6526440651587357</v>
+        <v>0.5294530625521361</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2151339639560383</v>
       </c>
       <c r="M8">
-        <v>0.7840178018921051</v>
+        <v>0.1829627722433091</v>
       </c>
       <c r="N8">
-        <v>0.1461272999551895</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1905358104707169</v>
+        <v>0.8088530030007064</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1563306585747881</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1903165410020087</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.138348978220563</v>
+        <v>1.122048766623948</v>
       </c>
       <c r="C9">
-        <v>0.1199352647696799</v>
+        <v>0.1267846670151016</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04474566879550146</v>
+        <v>0.04237396004559102</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.8234019210596557</v>
+        <v>0.6410677651105203</v>
       </c>
       <c r="H9">
-        <v>0.0123988475038842</v>
+        <v>0.009596138819038376</v>
       </c>
       <c r="I9">
-        <v>0.01688127668531614</v>
+        <v>0.01220501050279665</v>
       </c>
       <c r="J9">
-        <v>0.6091946868879177</v>
+        <v>0.4980335745237028</v>
       </c>
       <c r="K9">
-        <v>0.6685209609248872</v>
+        <v>0.5199882314008164</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.203629850380068</v>
       </c>
       <c r="M9">
-        <v>1.048620190208567</v>
+        <v>0.1858066927958859</v>
       </c>
       <c r="N9">
-        <v>0.1902634064637994</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2536200755327123</v>
+        <v>1.082937345847853</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2013792484541739</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.253137832171678</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.34877326749023</v>
+        <v>1.329237837426092</v>
       </c>
       <c r="C10">
-        <v>0.1414979748977885</v>
+        <v>0.1510457960319798</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04809527446846751</v>
+        <v>0.04513571412137019</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.8349858033472515</v>
+        <v>0.6382682547373264</v>
       </c>
       <c r="H10">
-        <v>0.008591417221143427</v>
+        <v>0.006651467139066281</v>
       </c>
       <c r="I10">
-        <v>0.01200548397296153</v>
+        <v>0.008825920136930065</v>
       </c>
       <c r="J10">
-        <v>0.6050043768497204</v>
+        <v>0.4630552772799916</v>
       </c>
       <c r="K10">
-        <v>0.6621159052919197</v>
+        <v>0.4948844698717529</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1888127068038479</v>
       </c>
       <c r="M10">
-        <v>1.248955018782709</v>
+        <v>0.1831631336493516</v>
       </c>
       <c r="N10">
-        <v>0.2114290368856189</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2946620995037676</v>
+        <v>1.286747995465987</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2223853887488332</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.294033916955577</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.44031394907077</v>
+        <v>1.429051494925915</v>
       </c>
       <c r="C11">
-        <v>0.1693163196324008</v>
+        <v>0.1734541970023997</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03179675677193572</v>
+        <v>0.03063515030366037</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.6429440465509799</v>
+        <v>0.5142797872795342</v>
       </c>
       <c r="H11">
-        <v>0.02725076206468557</v>
+        <v>0.02541280238666133</v>
       </c>
       <c r="I11">
-        <v>0.01149927926501704</v>
+        <v>0.008781620192234385</v>
       </c>
       <c r="J11">
-        <v>0.5013150252879797</v>
+        <v>0.35909315794337</v>
       </c>
       <c r="K11">
-        <v>0.5266610743693683</v>
+        <v>0.3950721609643288</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1530252533245573</v>
       </c>
       <c r="M11">
-        <v>1.37999572387946</v>
+        <v>0.1453010686511149</v>
       </c>
       <c r="N11">
-        <v>0.1331033967254669</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2675988814674639</v>
+        <v>1.407760443762669</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1405958568985568</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2673748907313431</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.474466504453034</v>
+        <v>1.469991764530846</v>
       </c>
       <c r="C12">
-        <v>0.1894294241061516</v>
+        <v>0.1882124326628087</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02460637005376176</v>
+        <v>0.02434737707412782</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.5093303345509455</v>
+        <v>0.4232155839175391</v>
       </c>
       <c r="H12">
-        <v>0.06631502561752711</v>
+        <v>0.06445175279853999</v>
       </c>
       <c r="I12">
-        <v>0.01135449776504949</v>
+        <v>0.008686543752131293</v>
       </c>
       <c r="J12">
-        <v>0.4298463785282252</v>
+        <v>0.3137804894646656</v>
       </c>
       <c r="K12">
-        <v>0.438629127508154</v>
+        <v>0.3390830019720923</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1348490544432872</v>
       </c>
       <c r="M12">
-        <v>1.448809028032031</v>
+        <v>0.1220156394270653</v>
       </c>
       <c r="N12">
-        <v>0.07869365901106562</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.237515391097439</v>
+        <v>1.468454067823615</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.08419949561638163</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2375762071147491</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.464847287521508</v>
+        <v>1.465660971988939</v>
       </c>
       <c r="C13">
-        <v>0.2054012536493985</v>
+        <v>0.1998383449300292</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.02372116840724736</v>
+        <v>0.02391299647847323</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.4043541088750828</v>
+        <v>0.3454340243386227</v>
       </c>
       <c r="H13">
-        <v>0.1227940348685053</v>
+        <v>0.1207813314478443</v>
       </c>
       <c r="I13">
-        <v>0.01192339207124959</v>
+        <v>0.009049022014843366</v>
       </c>
       <c r="J13">
-        <v>0.3744781871871155</v>
+        <v>0.2964418804175715</v>
       </c>
       <c r="K13">
-        <v>0.3756623192679118</v>
+        <v>0.306689258460171</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1253053909823532</v>
       </c>
       <c r="M13">
-        <v>1.474340574063973</v>
+        <v>0.1071633487103867</v>
       </c>
       <c r="N13">
-        <v>0.03985048311442441</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2035115471793318</v>
+        <v>1.488026677364019</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.04425874455708723</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.203752933505946</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.438063520956405</v>
+        <v>1.441920569883081</v>
       </c>
       <c r="C14">
-        <v>0.2150992759311521</v>
+        <v>0.2069419034687883</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0268542604740496</v>
+        <v>0.02718498979515616</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.3462867501798641</v>
+        <v>0.3001108920914035</v>
       </c>
       <c r="H14">
-        <v>0.1727918704166314</v>
+        <v>0.170617153779105</v>
       </c>
       <c r="I14">
-        <v>0.01275646388544338</v>
+        <v>0.009631659165394879</v>
       </c>
       <c r="J14">
-        <v>0.3441028695456581</v>
+        <v>0.2916921247746078</v>
       </c>
       <c r="K14">
-        <v>0.3449833958287645</v>
+        <v>0.2939026378523719</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1218386939439333</v>
       </c>
       <c r="M14">
-        <v>1.472883876629908</v>
+        <v>0.1006951283116715</v>
       </c>
       <c r="N14">
-        <v>0.02207595030410836</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1783518669701039</v>
+        <v>1.48330848128964</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.0260581283922221</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1786708393033969</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.421866515743119</v>
+        <v>1.42619391373762</v>
       </c>
       <c r="C15">
-        <v>0.2166130157917792</v>
+        <v>0.2081486622125226</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02803568923661537</v>
+        <v>0.02841019893014796</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.3344777200026066</v>
+        <v>0.2904035602461903</v>
       </c>
       <c r="H15">
-        <v>0.1856071933568586</v>
+        <v>0.1833540479102709</v>
       </c>
       <c r="I15">
-        <v>0.01327996817177723</v>
+        <v>0.01005047984149332</v>
       </c>
       <c r="J15">
-        <v>0.3382493698717894</v>
+        <v>0.2923995024269939</v>
       </c>
       <c r="K15">
-        <v>0.339900243602866</v>
+        <v>0.2928817672526751</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1215646098497403</v>
       </c>
       <c r="M15">
-        <v>1.463344651841709</v>
+        <v>0.1000009452787269</v>
       </c>
       <c r="N15">
-        <v>0.01897483355744889</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1712653709151155</v>
+        <v>1.473390210519625</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.02291930466069836</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.171589257200047</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.332531372116449</v>
+        <v>1.334336614800122</v>
       </c>
       <c r="C16">
-        <v>0.2037975488044026</v>
+        <v>0.1986732384137611</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.02675376616525504</v>
+        <v>0.02744533134730265</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.3484775999816137</v>
+        <v>0.2994026927776439</v>
       </c>
       <c r="H16">
-        <v>0.1745227188405352</v>
+        <v>0.1718606312111461</v>
       </c>
       <c r="I16">
-        <v>0.01537456655819192</v>
+        <v>0.01152621307934965</v>
       </c>
       <c r="J16">
-        <v>0.3496438732093168</v>
+        <v>0.3136218610664656</v>
       </c>
       <c r="K16">
-        <v>0.3533438273810052</v>
+        <v>0.3082639888953542</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1256618790952491</v>
       </c>
       <c r="M16">
-        <v>1.370932460558919</v>
+        <v>0.1064324542141062</v>
       </c>
       <c r="N16">
-        <v>0.01901986252195798</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1615164111594467</v>
+        <v>1.384856576157318</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.02337956909225802</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.161730829202817</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.278380746888757</v>
+        <v>1.277157090384009</v>
       </c>
       <c r="C17">
-        <v>0.1887912725931642</v>
+        <v>0.186891707761248</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02346842439394869</v>
+        <v>0.0242434973825878</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.3878446947149925</v>
+        <v>0.3284751689094918</v>
       </c>
       <c r="H17">
-        <v>0.1376872114384895</v>
+        <v>0.1347965496160128</v>
       </c>
       <c r="I17">
-        <v>0.01659891905726507</v>
+        <v>0.01240966077913441</v>
       </c>
       <c r="J17">
-        <v>0.3735459087187536</v>
+        <v>0.3376603995741121</v>
       </c>
       <c r="K17">
-        <v>0.3782089524175447</v>
+        <v>0.3277024631849841</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1317356147838904</v>
       </c>
       <c r="M17">
-        <v>1.301125424962805</v>
+        <v>0.1144452793620534</v>
       </c>
       <c r="N17">
-        <v>0.02684361273384184</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1670963652351389</v>
+        <v>1.318976832736723</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.03179876899661238</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1672071561802717</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.248877533596271</v>
+        <v>1.243169293248627</v>
       </c>
       <c r="C18">
-        <v>0.1703903147385546</v>
+        <v>0.1724151421746001</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02151023147401565</v>
+        <v>0.02198560716300091</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.4673657065902006</v>
+        <v>0.3852962080672455</v>
       </c>
       <c r="H18">
-        <v>0.08500799647811164</v>
+        <v>0.08206791457993035</v>
       </c>
       <c r="I18">
-        <v>0.0167130186819735</v>
+        <v>0.01237603583563551</v>
       </c>
       <c r="J18">
-        <v>0.4177551921343863</v>
+        <v>0.372683124221183</v>
       </c>
       <c r="K18">
-        <v>0.4267186168852888</v>
+        <v>0.3608883932986533</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.143251331676753</v>
       </c>
       <c r="M18">
-        <v>1.242551205717859</v>
+        <v>0.1275612356233129</v>
       </c>
       <c r="N18">
-        <v>0.05033437693392884</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1873550479339237</v>
+        <v>1.26577067813119</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.0564060800521986</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1873164804406322</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.239779120204417</v>
+        <v>1.228718612532589</v>
       </c>
       <c r="C19">
-        <v>0.153409292194894</v>
+        <v>0.1592613823286655</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02585117398732795</v>
+        <v>0.02543030492818144</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.5858590091082405</v>
+        <v>0.4670425245672121</v>
       </c>
       <c r="H19">
-        <v>0.03893770879292191</v>
+        <v>0.03614135565988619</v>
       </c>
       <c r="I19">
-        <v>0.01645400199276992</v>
+        <v>0.01226747288214192</v>
       </c>
       <c r="J19">
-        <v>0.4808081003958833</v>
+        <v>0.4177239728333078</v>
       </c>
       <c r="K19">
-        <v>0.5019775314881905</v>
+        <v>0.4095344270982544</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1607010475288089</v>
       </c>
       <c r="M19">
-        <v>1.199835068067756</v>
+        <v>0.1464742258120086</v>
       </c>
       <c r="N19">
-        <v>0.0971265178077374</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2193351790309883</v>
+        <v>1.229161065617603</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1049779222637213</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2190974192499162</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.290995597161583</v>
+        <v>1.271664095574579</v>
       </c>
       <c r="C20">
-        <v>0.1376778084773633</v>
+        <v>0.1476897803265871</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04675498724670923</v>
+        <v>0.0439321561810555</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.8155498238880625</v>
+        <v>0.6220074217665399</v>
       </c>
       <c r="H20">
-        <v>0.009536767577451588</v>
+        <v>0.007356923938279802</v>
       </c>
       <c r="I20">
-        <v>0.01413345009976741</v>
+        <v>0.01069418823754287</v>
       </c>
       <c r="J20">
-        <v>0.5976291475799655</v>
+        <v>0.4819173408612727</v>
       </c>
       <c r="K20">
-        <v>0.6521962873293177</v>
+        <v>0.497709380247354</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1912689709169122</v>
       </c>
       <c r="M20">
-        <v>1.19911034927199</v>
+        <v>0.1823038527778991</v>
       </c>
       <c r="N20">
-        <v>0.2058004698239273</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2835111552014169</v>
+        <v>1.237166017424897</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2170026790746959</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2828954203119167</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.453567914153837</v>
+        <v>1.435816498309151</v>
       </c>
       <c r="C21">
-        <v>0.1514585382067679</v>
+        <v>0.1582790221713282</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05348975191423833</v>
+        <v>0.05032413467580099</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.8655541523423551</v>
+        <v>0.675536129551304</v>
       </c>
       <c r="H21">
-        <v>0.006445688372336056</v>
+        <v>0.004982911464069317</v>
       </c>
       <c r="I21">
-        <v>0.01058647986672057</v>
+        <v>0.00831550314318541</v>
       </c>
       <c r="J21">
-        <v>0.615642579772711</v>
+        <v>0.3964238818089711</v>
       </c>
       <c r="K21">
-        <v>0.6752898792695703</v>
+        <v>0.4744679306075987</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1791373358046933</v>
       </c>
       <c r="M21">
-        <v>1.346295967476578</v>
+        <v>0.1788437714654769</v>
       </c>
       <c r="N21">
-        <v>0.2399197835961502</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3234051068130768</v>
+        <v>1.380305709393127</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2500839892064874</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3228547698030297</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.56081166579844</v>
+        <v>1.544790105893384</v>
       </c>
       <c r="C22">
-        <v>0.1608102895326624</v>
+        <v>0.1649829528253264</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05670265962704057</v>
+        <v>0.05349941658389845</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.8927634676148983</v>
+        <v>0.7118194026640907</v>
       </c>
       <c r="H22">
-        <v>0.004914107183719096</v>
+        <v>0.003823926120025911</v>
       </c>
       <c r="I22">
-        <v>0.008331851330840578</v>
+        <v>0.006630736525425895</v>
       </c>
       <c r="J22">
-        <v>0.6246300598275667</v>
+        <v>0.3469946718936328</v>
       </c>
       <c r="K22">
-        <v>0.6866566656388358</v>
+        <v>0.4560477786343746</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1705365804941863</v>
       </c>
       <c r="M22">
-        <v>1.443940901790512</v>
+        <v>0.1752850460999333</v>
       </c>
       <c r="N22">
-        <v>0.2562207022782701</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3468574042381718</v>
+        <v>1.474167426652599</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2653993311319311</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3463686010898357</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.504519354576757</v>
+        <v>1.486671914656938</v>
       </c>
       <c r="C23">
-        <v>0.1551076234729152</v>
+        <v>0.1614578565159803</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05512250181587675</v>
+        <v>0.05183219315349774</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.8840174673633925</v>
+        <v>0.6925877231166595</v>
       </c>
       <c r="H23">
-        <v>0.005690949218505603</v>
+        <v>0.00440303931245134</v>
       </c>
       <c r="I23">
-        <v>0.009141698012231636</v>
+        <v>0.007077721998288489</v>
       </c>
       <c r="J23">
-        <v>0.6227996645278466</v>
+        <v>0.3814425846657343</v>
       </c>
       <c r="K23">
-        <v>0.6847219279815064</v>
+        <v>0.471344650612032</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1768705085325948</v>
       </c>
       <c r="M23">
-        <v>1.39076690333053</v>
+        <v>0.1794945870221127</v>
       </c>
       <c r="N23">
-        <v>0.2473464948065924</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3343930920109202</v>
+        <v>1.424245589579215</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2572817950301385</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3338264864009943</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.290063900030276</v>
+        <v>1.269984509414741</v>
       </c>
       <c r="C24">
-        <v>0.1350085023825187</v>
+        <v>0.1451823803364647</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04894181609565429</v>
+        <v>0.04588102413729445</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.8426480334200193</v>
+        <v>0.6407240798662457</v>
       </c>
       <c r="H24">
-        <v>0.009250301170643016</v>
+        <v>0.007097344952415346</v>
       </c>
       <c r="I24">
-        <v>0.01350709113491355</v>
+        <v>0.009992639431414929</v>
       </c>
       <c r="J24">
-        <v>0.6117031190677125</v>
+        <v>0.4923255776375584</v>
       </c>
       <c r="K24">
-        <v>0.6711689123314102</v>
+        <v>0.5103448337974577</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.195833874550928</v>
       </c>
       <c r="M24">
-        <v>1.191805415651288</v>
+        <v>0.1871815096813236</v>
       </c>
       <c r="N24">
-        <v>0.2141443811403434</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2871993646860957</v>
+        <v>1.230631696636664</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2256746023708871</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2865428136328418</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.0591761057361</v>
+        <v>1.044625768761449</v>
       </c>
       <c r="C25">
-        <v>0.1139383673247636</v>
+        <v>0.1195804287519451</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04230724880982351</v>
+        <v>0.04030383424991868</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.8005709421653364</v>
+        <v>0.6301644080105433</v>
       </c>
       <c r="H25">
-        <v>0.0142666220973362</v>
+        <v>0.01107435442746435</v>
       </c>
       <c r="I25">
-        <v>0.0196816963019959</v>
+        <v>0.01444177989944873</v>
       </c>
       <c r="J25">
-        <v>0.6012151751305908</v>
+        <v>0.5014616949562622</v>
       </c>
       <c r="K25">
-        <v>0.6577162364805886</v>
+        <v>0.5197393898641742</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2056690618386199</v>
       </c>
       <c r="M25">
-        <v>0.9784067766120472</v>
+        <v>0.1835688244081624</v>
       </c>
       <c r="N25">
-        <v>0.178543260041053</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2364588803690637</v>
+        <v>1.010600652755471</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1894895306504765</v>
       </c>
       <c r="Q25">
+        <v>0.2360500278955655</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
